--- a/data/valid_factor_loadings_fix.xlsx
+++ b/data/valid_factor_loadings_fix.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+  <si>
+    <t>factor_1</t>
+  </si>
   <si>
     <t>factor_2</t>
   </si>
@@ -246,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="73">
+  <fills count="84">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +258,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDEDCDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDFDBD9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -279,6 +288,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDDCDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD8DCE2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -297,12 +312,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD6DCE4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -327,18 +336,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDEDCDB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9DCE1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDCDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD5DBE5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -375,12 +384,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCDDDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCF453C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,12 +408,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF7BCA1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDF634E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEF886B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF6A283"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -429,6 +444,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE1DAD6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2C9B4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -465,12 +486,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1DAD6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF0CDBB"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -513,12 +528,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC0282F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE4D9D2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD55042"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF4C6AF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -543,24 +570,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF5C0A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6D6F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF4E68D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3CDFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCD9ED"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF445ACC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCDD9EC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEBD3C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBED2F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC4D5F3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -610,6 +673,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD75445"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6485EC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -730,59 +799,70 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,13 +1157,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,1041 +1176,1227 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
+        <v>0.01143107443396187</v>
+      </c>
+      <c r="C2" s="3">
         <v>0.01894865881187662</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="4">
         <v>-0.06631892309912221</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="5">
         <v>0.07652246871905787</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="6">
         <v>0.08012668615706586</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.005161756795406245</v>
+      </c>
+      <c r="C3" s="8">
         <v>-0.03152766719864147</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="3">
         <v>0.02005193155118464</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="9">
         <v>-0.009180224614567828</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="10">
         <v>-0.01952130845938197</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.009823278974712614</v>
+      </c>
+      <c r="C4" s="7">
         <v>0.004358868396787675</v>
       </c>
-      <c r="C4" s="10">
+      <c r="D4" s="11">
         <v>-0.04923808124164451</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E4" s="12">
         <v>0.1160667615804733</v>
       </c>
-      <c r="E4" s="12">
+      <c r="F4" s="13">
         <v>0.04496137648261091</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="13">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.01922021624038071</v>
+      </c>
+      <c r="C5" s="14">
         <v>-0.0802960465551025</v>
       </c>
-      <c r="C5" s="8">
+      <c r="D5" s="10">
         <v>-0.02306822560105151</v>
       </c>
-      <c r="D5" s="14">
+      <c r="E5" s="2">
         <v>0.009033463670401705</v>
       </c>
-      <c r="E5" s="9">
+      <c r="F5" s="7">
         <v>0.004596034305631541</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.004232303551912825</v>
+      </c>
+      <c r="C6" s="7">
         <v>0.004248299809054768</v>
       </c>
-      <c r="C6" s="15">
+      <c r="D6" s="15">
         <v>-0.02899192033341618</v>
       </c>
-      <c r="D6" s="9">
+      <c r="E6" s="7">
         <v>0.006989442695891169</v>
       </c>
-      <c r="E6" s="12">
+      <c r="F6" s="13">
         <v>0.03970173321687076</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="16">
+        <v>-0.006262371477250042</v>
+      </c>
+      <c r="C7" s="9">
         <v>-0.008198898037149982</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D7" s="9">
         <v>-0.008989432922740294</v>
       </c>
-      <c r="D7" s="11">
+      <c r="E7" s="12">
         <v>0.1145036917646289</v>
       </c>
-      <c r="E7" s="9">
+      <c r="F7" s="7">
         <v>0.006302149140296581</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.003601749720179703</v>
+      </c>
+      <c r="C8" s="3">
         <v>0.02187489635900494</v>
       </c>
-      <c r="C8" s="16">
+      <c r="D8" s="17">
         <v>-0.05544885831787191</v>
       </c>
-      <c r="D8" s="14">
+      <c r="E8" s="2">
         <v>0.008426870835781001</v>
       </c>
-      <c r="E8" s="14">
+      <c r="F8" s="2">
         <v>0.01467734793223201</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="17">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01734968456257514</v>
+      </c>
+      <c r="C9" s="18">
         <v>-0.07448327794044476</v>
       </c>
-      <c r="C9" s="18">
+      <c r="D9" s="19">
         <v>0.02561600227754066</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="6">
         <v>0.08590745043054891</v>
       </c>
-      <c r="E9" s="19">
+      <c r="F9" s="20">
         <v>0.06661684785251253</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8">
+        <v>13</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.04472927753944169</v>
+      </c>
+      <c r="C10" s="10">
         <v>-0.02062127529062023</v>
       </c>
-      <c r="C10" s="20">
+      <c r="D10" s="21">
         <v>0.9591107957652455</v>
       </c>
-      <c r="D10" s="14">
+      <c r="E10" s="2">
         <v>0.008834693496281222</v>
       </c>
-      <c r="E10" s="21">
+      <c r="F10" s="22">
         <v>-0.03972860386090096</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="11">
+        <v>14</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.04469873713191379</v>
+      </c>
+      <c r="C11" s="12">
         <v>0.1116678047344279</v>
       </c>
-      <c r="C11" s="22">
+      <c r="D11" s="16">
         <v>-0.0004965667363642997</v>
       </c>
-      <c r="D11" s="19">
+      <c r="E11" s="20">
         <v>0.06719300275504175</v>
       </c>
-      <c r="E11" s="23">
+      <c r="F11" s="23">
         <v>0.8449897412918731</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="9">
+        <v>15</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.1141061521363278</v>
+      </c>
+      <c r="C12" s="7">
         <v>0.001915948114978962</v>
       </c>
-      <c r="C12" s="24">
+      <c r="D12" s="24">
         <v>0.760900606131907</v>
       </c>
-      <c r="D12" s="25">
+      <c r="E12" s="25">
         <v>0.2603696164749812</v>
       </c>
-      <c r="E12" s="26">
+      <c r="F12" s="26">
         <v>0.3845587429623123</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="12">
+        <v>16</v>
+      </c>
+      <c r="B13" s="27">
+        <v>0.3104660263285774</v>
+      </c>
+      <c r="C13" s="13">
         <v>0.04264117247173396</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="3">
         <v>0.01726579984279806</v>
       </c>
-      <c r="D13" s="8">
+      <c r="E13" s="10">
         <v>-0.01573822686353441</v>
       </c>
-      <c r="E13" s="27">
+      <c r="F13" s="28">
         <v>0.7400781489821061</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="7">
+        <v>17</v>
+      </c>
+      <c r="B14" s="29">
+        <v>0.5794730701637508</v>
+      </c>
+      <c r="C14" s="9">
         <v>-0.01338994229862134</v>
       </c>
-      <c r="C14" s="28">
+      <c r="D14" s="30">
         <v>0.4600095364962621</v>
       </c>
-      <c r="D14" s="29">
+      <c r="E14" s="31">
         <v>0.09863977503420344</v>
       </c>
-      <c r="E14" s="30">
+      <c r="F14" s="32">
         <v>0.4404443213680559</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="18">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.01856962304232472</v>
+      </c>
+      <c r="C15" s="19">
         <v>0.03009566722487201</v>
       </c>
-      <c r="C15" s="22">
+      <c r="D15" s="16">
         <v>-0.001143382889944904</v>
       </c>
-      <c r="D15" s="14">
+      <c r="E15" s="2">
         <v>0.008755391750531989</v>
       </c>
-      <c r="E15" s="9">
+      <c r="F15" s="7">
         <v>0.006488887708529049</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="18">
+        <v>19</v>
+      </c>
+      <c r="B16" s="33">
+        <v>0.03707720336181254</v>
+      </c>
+      <c r="C16" s="19">
         <v>0.02795080437224516</v>
       </c>
-      <c r="C16" s="31">
+      <c r="D16" s="34">
         <v>0.2125208465135751</v>
       </c>
-      <c r="D16" s="32">
+      <c r="E16" s="35">
         <v>0.3415689626169037</v>
       </c>
-      <c r="E16" s="18">
+      <c r="F16" s="19">
         <v>0.02989886661637653</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="9">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.0180540897440992</v>
+      </c>
+      <c r="C17" s="7">
         <v>0.002590430996495227</v>
       </c>
-      <c r="C17" s="22">
+      <c r="D17" s="16">
         <v>-0.004197706267086183</v>
       </c>
-      <c r="D17" s="14">
+      <c r="E17" s="2">
         <v>0.0123701457661118</v>
       </c>
-      <c r="E17" s="33">
+      <c r="F17" s="36">
         <v>0.2891283944875646</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="15">
+        <v>21</v>
+      </c>
+      <c r="B18" s="33">
+        <v>0.03619287289816959</v>
+      </c>
+      <c r="C18" s="15">
         <v>-0.03004498968515375</v>
       </c>
-      <c r="C18" s="25">
+      <c r="D18" s="25">
         <v>0.26298364363566</v>
       </c>
-      <c r="D18" s="34">
+      <c r="E18" s="37">
         <v>0.1050957644076405</v>
       </c>
-      <c r="E18" s="19">
+      <c r="F18" s="20">
         <v>0.06920219994727843</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="35">
+        <v>22</v>
+      </c>
+      <c r="B19" s="19">
+        <v>0.02538169442199157</v>
+      </c>
+      <c r="C19" s="38">
         <v>0.04738233321621412</v>
       </c>
-      <c r="C19" s="29">
+      <c r="D19" s="31">
         <v>0.1000584489370729</v>
       </c>
-      <c r="D19" s="36">
+      <c r="E19" s="39">
         <v>0.9049870040346615</v>
       </c>
-      <c r="E19" s="15">
+      <c r="F19" s="15">
         <v>-0.02434474325385119</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="37">
+        <v>23</v>
+      </c>
+      <c r="B20" s="33">
+        <v>0.03553516516768677</v>
+      </c>
+      <c r="C20" s="33">
         <v>0.03805137818230261</v>
       </c>
-      <c r="C20" s="31">
+      <c r="D20" s="34">
         <v>0.2157889240825209</v>
       </c>
-      <c r="D20" s="38">
+      <c r="E20" s="40">
         <v>0.1767093520999087</v>
       </c>
-      <c r="E20" s="22">
+      <c r="F20" s="16">
         <v>-0.003821063931084698</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="6">
+        <v>24</v>
+      </c>
+      <c r="B21" s="9">
+        <v>-0.01136136300745327</v>
+      </c>
+      <c r="C21" s="8">
         <v>-0.03861445523416832</v>
       </c>
-      <c r="C21" s="39">
+      <c r="D21" s="41">
         <v>-0.1510502830381614</v>
       </c>
-      <c r="D21" s="8">
+      <c r="E21" s="10">
         <v>-0.01920380331795082</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="3">
         <v>0.02227816939805699</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="2">
+        <v>25</v>
+      </c>
+      <c r="B22" s="8">
+        <v>-0.03639192335336008</v>
+      </c>
+      <c r="C22" s="3">
         <v>0.02147610645554747</v>
       </c>
-      <c r="C22" s="16">
+      <c r="D22" s="17">
         <v>-0.0566298731332504</v>
       </c>
-      <c r="D22" s="40">
+      <c r="E22" s="42">
         <v>-0.8118548259308939</v>
       </c>
-      <c r="E22" s="41">
+      <c r="F22" s="43">
         <v>-0.2213537513550984</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="13">
+        <v>26</v>
+      </c>
+      <c r="B23" s="22">
+        <v>-0.04631343439022511</v>
+      </c>
+      <c r="C23" s="14">
         <v>-0.08185400371778247</v>
       </c>
-      <c r="C23" s="42">
+      <c r="D23" s="44">
         <v>-0.2460616222780047</v>
       </c>
-      <c r="D23" s="9">
+      <c r="E23" s="7">
         <v>0.003326678574691789</v>
       </c>
-      <c r="E23" s="15">
+      <c r="F23" s="15">
         <v>-0.03089378319861297</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="16">
+        <v>27</v>
+      </c>
+      <c r="B24" s="38">
+        <v>0.053229671203981</v>
+      </c>
+      <c r="C24" s="17">
         <v>-0.05587438535718198</v>
       </c>
-      <c r="C24" s="43">
+      <c r="D24" s="45">
         <v>0.8586935518994202</v>
       </c>
-      <c r="D24" s="18">
+      <c r="E24" s="19">
         <v>0.02913430124389385</v>
       </c>
-      <c r="E24" s="8">
+      <c r="F24" s="10">
         <v>-0.02126947825183987</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="8">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.009705857653287941</v>
+      </c>
+      <c r="C25" s="10">
         <v>-0.01787587196945317</v>
       </c>
-      <c r="C25" s="7">
+      <c r="D25" s="9">
         <v>-0.008011868801527362</v>
       </c>
-      <c r="D25" s="44">
+      <c r="E25" s="46">
         <v>0.1558277176036227</v>
       </c>
-      <c r="E25" s="22">
+      <c r="F25" s="16">
         <v>-0.004101424915173038</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="22">
+        <v>29</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.006526690201818642</v>
+      </c>
+      <c r="C26" s="16">
         <v>-0.006617935127872169</v>
       </c>
-      <c r="C26" s="9">
+      <c r="D26" s="7">
         <v>0.002254075728208873</v>
       </c>
-      <c r="D26" s="21">
+      <c r="E26" s="22">
         <v>-0.03992569141452755</v>
       </c>
-      <c r="E26" s="14">
+      <c r="F26" s="2">
         <v>0.008882142062062942</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="21">
+        <v>30</v>
+      </c>
+      <c r="B27" s="38">
+        <v>0.05281472531062095</v>
+      </c>
+      <c r="C27" s="22">
         <v>-0.04344321382515582</v>
       </c>
-      <c r="C27" s="14">
+      <c r="D27" s="2">
         <v>0.01084611828802547</v>
       </c>
-      <c r="D27" s="14">
+      <c r="E27" s="2">
         <v>0.01291715259977607</v>
       </c>
-      <c r="E27" s="16">
+      <c r="F27" s="17">
         <v>-0.05928544660336699</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="45">
+        <v>31</v>
+      </c>
+      <c r="B28" s="47">
+        <v>0.9363000725383218</v>
+      </c>
+      <c r="C28" s="48">
         <v>0.05855172858636218</v>
       </c>
-      <c r="C28" s="45">
+      <c r="D28" s="48">
         <v>0.05603594948729858</v>
       </c>
-      <c r="D28" s="18">
+      <c r="E28" s="19">
         <v>0.03025231660889355</v>
       </c>
-      <c r="E28" s="29">
+      <c r="F28" s="31">
         <v>0.1009754453303304</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="6">
+        <v>32</v>
+      </c>
+      <c r="B29" s="49">
+        <v>0.8069912012609426</v>
+      </c>
+      <c r="C29" s="8">
         <v>-0.03445545661472538</v>
       </c>
-      <c r="C29" s="46">
+      <c r="D29" s="50">
         <v>0.2418928080045563</v>
       </c>
-      <c r="D29" s="12">
+      <c r="E29" s="13">
         <v>0.04376047228608596</v>
       </c>
-      <c r="E29" s="47">
+      <c r="F29" s="51">
         <v>0.1259252407976591</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="16">
+        <v>33</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.01825116237996304</v>
+      </c>
+      <c r="C30" s="17">
         <v>-0.05642619322238735</v>
       </c>
-      <c r="C30" s="7">
+      <c r="D30" s="9">
         <v>-0.012573567099577</v>
       </c>
-      <c r="D30" s="18">
+      <c r="E30" s="19">
         <v>0.03053298152988557</v>
       </c>
-      <c r="E30" s="48">
+      <c r="F30" s="52">
         <v>0.1974124653538143</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="15">
+        <v>34</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.01047324271240575</v>
+      </c>
+      <c r="C31" s="15">
         <v>-0.02620898197460887</v>
       </c>
-      <c r="C31" s="21">
+      <c r="D31" s="22">
         <v>-0.04417828640107264</v>
       </c>
-      <c r="D31" s="45">
+      <c r="E31" s="48">
         <v>0.06072381341623743</v>
       </c>
-      <c r="E31" s="49">
+      <c r="F31" s="53">
         <v>0.6210472770109197</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="12">
+        <v>35</v>
+      </c>
+      <c r="B32" s="22">
+        <v>-0.03917428918859734</v>
+      </c>
+      <c r="C32" s="13">
         <v>0.04424129008462691</v>
       </c>
-      <c r="C32" s="9">
+      <c r="D32" s="7">
         <v>0.001140596439506646</v>
       </c>
-      <c r="D32" s="8">
+      <c r="E32" s="10">
         <v>-0.01894523475838869</v>
       </c>
-      <c r="E32" s="29">
+      <c r="F32" s="31">
         <v>0.09547265302481607</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="17">
+        <v>36</v>
+      </c>
+      <c r="B33" s="10">
+        <v>-0.02174407397681467</v>
+      </c>
+      <c r="C33" s="18">
         <v>-0.07468764069301642</v>
       </c>
-      <c r="C33" s="22">
+      <c r="D33" s="16">
         <v>-0.002627726904741237</v>
       </c>
-      <c r="D33" s="8">
+      <c r="E33" s="10">
         <v>-0.01914877347998815</v>
       </c>
-      <c r="E33" s="11">
+      <c r="F33" s="12">
         <v>0.1134409724493006</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="50">
+        <v>37</v>
+      </c>
+      <c r="B34" s="54">
+        <v>0.2756170573151367</v>
+      </c>
+      <c r="C34" s="55">
         <v>-0.1572351159663819</v>
       </c>
-      <c r="C34" s="35">
+      <c r="D34" s="38">
         <v>0.05394589097073495</v>
       </c>
-      <c r="D34" s="34">
+      <c r="E34" s="37">
         <v>0.1072034214255066</v>
       </c>
-      <c r="E34" s="5">
+      <c r="F34" s="6">
         <v>0.08488070939941875</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="10">
+        <v>38</v>
+      </c>
+      <c r="B35" s="56">
+        <v>-0.8734032205600303</v>
+      </c>
+      <c r="C35" s="11">
         <v>-0.04904466965437882</v>
       </c>
-      <c r="C35" s="19">
+      <c r="D35" s="20">
         <v>0.06771844863043296</v>
       </c>
-      <c r="D35" s="15">
+      <c r="E35" s="15">
         <v>-0.02461843910225237</v>
       </c>
-      <c r="E35" s="19">
+      <c r="F35" s="20">
         <v>0.06801168682575219</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="19">
+        <v>39</v>
+      </c>
+      <c r="B36" s="57">
+        <v>-0.2755874955476949</v>
+      </c>
+      <c r="C36" s="20">
         <v>0.06627740694589866</v>
       </c>
-      <c r="C36" s="6">
+      <c r="D36" s="8">
         <v>-0.03357771348691014</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36" s="3">
         <v>0.01805387749313952</v>
       </c>
-      <c r="E36" s="51">
+      <c r="F36" s="58">
         <v>-0.1175815625810818</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="51">
+        <v>40</v>
+      </c>
+      <c r="B37" s="33">
+        <v>0.03642496410001367</v>
+      </c>
+      <c r="C37" s="58">
         <v>-0.1184788538625648</v>
       </c>
-      <c r="C37" s="37">
+      <c r="D37" s="33">
         <v>0.03633938829342219</v>
       </c>
-      <c r="D37" s="5">
+      <c r="E37" s="6">
         <v>0.0804078983052431</v>
       </c>
-      <c r="E37" s="6">
+      <c r="F37" s="8">
         <v>-0.0352961522641294</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="17">
+        <v>41</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.01977876449022137</v>
+      </c>
+      <c r="C38" s="18">
         <v>-0.07781308137048271</v>
       </c>
-      <c r="C38" s="22">
+      <c r="D38" s="16">
         <v>-0.0007829439247362516</v>
       </c>
-      <c r="D38" s="45">
+      <c r="E38" s="48">
         <v>0.05712568226581316</v>
       </c>
-      <c r="E38" s="15">
+      <c r="F38" s="15">
         <v>-0.02713692427541725</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="6">
+        <v>42</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.007258330710696086</v>
+      </c>
+      <c r="C39" s="8">
         <v>-0.03888544734175581</v>
       </c>
-      <c r="C39" s="22">
+      <c r="D39" s="16">
         <v>-0.0039703786561058</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39" s="3">
         <v>0.02184453802159746</v>
       </c>
-      <c r="E39" s="18">
+      <c r="F39" s="19">
         <v>0.02926693990384912</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="12">
+        <v>43</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.003904879422989952</v>
+      </c>
+      <c r="C40" s="13">
         <v>0.04505855326815121</v>
       </c>
-      <c r="C40" s="22">
+      <c r="D40" s="16">
         <v>-0.002217905141420784</v>
       </c>
-      <c r="D40" s="9">
+      <c r="E40" s="7">
         <v>0.002690212753291395</v>
       </c>
-      <c r="E40" s="22">
+      <c r="F40" s="16">
         <v>-0.00209389444371422</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="22">
+        <v>44</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.01105122507799514</v>
+      </c>
+      <c r="C41" s="16">
         <v>-0.007610992185694493</v>
       </c>
-      <c r="C41" s="9">
+      <c r="D41" s="7">
         <v>0.001344682303950369</v>
       </c>
-      <c r="D41" s="14">
+      <c r="E41" s="2">
         <v>0.01378250747129413</v>
       </c>
-      <c r="E41" s="6">
+      <c r="F41" s="8">
         <v>-0.03805647418243305</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="22">
+        <v>45</v>
+      </c>
+      <c r="B42" s="59">
+        <v>-0.9370020212002864</v>
+      </c>
+      <c r="C42" s="16">
         <v>-0.004112525199883825</v>
       </c>
-      <c r="C42" s="37">
+      <c r="D42" s="33">
         <v>0.03486938241591978</v>
       </c>
-      <c r="D42" s="14">
+      <c r="E42" s="2">
         <v>0.01062661047796137</v>
       </c>
-      <c r="E42" s="52">
+      <c r="F42" s="60">
         <v>-0.1141321526500274</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="14">
+        <v>46</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.003266249629186303</v>
+      </c>
+      <c r="C43" s="2">
         <v>0.007955308805528982</v>
       </c>
-      <c r="C43" s="22">
+      <c r="D43" s="16">
         <v>-0.002560321200601014</v>
       </c>
-      <c r="D43" s="8">
+      <c r="E43" s="10">
         <v>-0.01692272269873912</v>
       </c>
-      <c r="E43" s="8">
+      <c r="F43" s="10">
         <v>-0.01676197856573285</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="3">
+        <v>47</v>
+      </c>
+      <c r="B44" s="61">
+        <v>0.1236973450155033</v>
+      </c>
+      <c r="C44" s="4">
         <v>-0.0681347018362717</v>
       </c>
-      <c r="C44" s="45">
+      <c r="D44" s="48">
         <v>0.05477443214707031</v>
       </c>
-      <c r="D44" s="35">
+      <c r="E44" s="38">
         <v>0.04973824548125882</v>
       </c>
-      <c r="E44" s="47">
+      <c r="F44" s="51">
         <v>0.1305953450705255</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="37">
+        <v>48</v>
+      </c>
+      <c r="B45" s="62">
+        <v>-0.2111045668104614</v>
+      </c>
+      <c r="C45" s="33">
         <v>0.03677646041869941</v>
       </c>
-      <c r="C45" s="10">
+      <c r="D45" s="11">
         <v>-0.046970993493069</v>
       </c>
-      <c r="D45" s="51">
+      <c r="E45" s="58">
         <v>-0.1223799356491803</v>
       </c>
-      <c r="E45" s="39">
+      <c r="F45" s="41">
         <v>-0.1523448171345399</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="53">
+        <v>49</v>
+      </c>
+      <c r="B46" s="33">
+        <v>0.03882689305376748</v>
+      </c>
+      <c r="C46" s="63">
         <v>-0.1763456121466735</v>
       </c>
-      <c r="C46" s="54">
+      <c r="D46" s="64">
         <v>0.409135565013693</v>
       </c>
-      <c r="D46" s="10">
+      <c r="E46" s="11">
         <v>-0.05289022135423686</v>
       </c>
-      <c r="E46" s="17">
+      <c r="F46" s="18">
         <v>-0.07292623427363736</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="15">
+        <v>50</v>
+      </c>
+      <c r="B47" s="19">
+        <v>0.02791781072404654</v>
+      </c>
+      <c r="C47" s="15">
         <v>-0.02540795240970662</v>
       </c>
-      <c r="C47" s="55">
+      <c r="D47" s="65">
         <v>0.2675402420535906</v>
       </c>
-      <c r="D47" s="29">
+      <c r="E47" s="31">
         <v>0.09636059528942319</v>
       </c>
-      <c r="E47" s="56">
+      <c r="F47" s="66">
         <v>0.1428913291707085</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="22">
+        <v>51</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.0007781410585894131</v>
+      </c>
+      <c r="C48" s="16">
         <v>-0.004592921003138782</v>
       </c>
-      <c r="C48" s="9">
+      <c r="D48" s="7">
         <v>0.00352934948872842</v>
       </c>
-      <c r="D48" s="15">
+      <c r="E48" s="15">
         <v>-0.03010608871793699</v>
       </c>
-      <c r="E48" s="37">
+      <c r="F48" s="33">
         <v>0.0379807972660394</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="57">
+        <v>52</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.01551790650703917</v>
+      </c>
+      <c r="C49" s="67">
         <v>0.210389413425628</v>
       </c>
-      <c r="C49" s="58">
+      <c r="D49" s="68">
         <v>0.2232273234099394</v>
       </c>
-      <c r="D49" s="7">
+      <c r="E49" s="9">
         <v>-0.01257225705361741</v>
       </c>
-      <c r="E49" s="59">
+      <c r="F49" s="69">
         <v>0.7009262081421167</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="21">
+        <v>53</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.04531927148132271</v>
+      </c>
+      <c r="C50" s="22">
         <v>-0.04427147908193555</v>
       </c>
-      <c r="C50" s="60">
+      <c r="D50" s="70">
         <v>0.7091811117872343</v>
       </c>
-      <c r="D50" s="2">
+      <c r="E50" s="3">
         <v>0.02158330589728206</v>
       </c>
-      <c r="E50" s="14">
+      <c r="F50" s="2">
         <v>0.01074653830135218</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="61">
+        <v>54</v>
+      </c>
+      <c r="B51" s="18">
+        <v>-0.0765925807947577</v>
+      </c>
+      <c r="C51" s="71">
         <v>0.7916427921076822</v>
       </c>
-      <c r="C51" s="21">
+      <c r="D51" s="22">
         <v>-0.0414952407576185</v>
       </c>
-      <c r="D51" s="10">
+      <c r="E51" s="11">
         <v>-0.0514021556377969</v>
       </c>
-      <c r="E51" s="57">
+      <c r="F51" s="67">
         <v>0.2060455551307334</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="62">
+        <v>55</v>
+      </c>
+      <c r="B52" s="72">
+        <v>-0.731433555718761</v>
+      </c>
+      <c r="C52" s="73">
         <v>0.3957077699915358</v>
       </c>
-      <c r="C52" s="2">
+      <c r="D52" s="3">
         <v>0.01986024325824984</v>
       </c>
-      <c r="D52" s="7">
+      <c r="E52" s="9">
         <v>-0.008085227463618503</v>
       </c>
-      <c r="E52" s="12">
+      <c r="F52" s="13">
         <v>0.04555561108915162</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="63">
+        <v>56</v>
+      </c>
+      <c r="B53" s="19">
+        <v>0.0304053278787296</v>
+      </c>
+      <c r="C53" s="74">
         <v>0.1933589132725051</v>
       </c>
-      <c r="C53" s="22">
+      <c r="D53" s="16">
         <v>-0.007010355888074438</v>
       </c>
-      <c r="D53" s="7">
+      <c r="E53" s="9">
         <v>-0.009149345362336317</v>
       </c>
-      <c r="E53" s="14">
+      <c r="F53" s="2">
         <v>0.01190060085184312</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="64">
+        <v>57</v>
+      </c>
+      <c r="B54" s="19">
+        <v>0.02947210082065972</v>
+      </c>
+      <c r="C54" s="75">
         <v>0.4958770495013433</v>
       </c>
-      <c r="C54" s="10">
+      <c r="D54" s="11">
         <v>-0.05422713402415086</v>
       </c>
-      <c r="D54" s="6">
+      <c r="E54" s="8">
         <v>-0.03677866761797864</v>
       </c>
-      <c r="E54" s="65">
+      <c r="F54" s="76">
         <v>0.1813586311828467</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="66">
+        <v>58</v>
+      </c>
+      <c r="B55" s="8">
+        <v>-0.03194663854717709</v>
+      </c>
+      <c r="C55" s="77">
         <v>0.62924984772603</v>
       </c>
-      <c r="C55" s="8">
+      <c r="D55" s="10">
         <v>-0.02294428336634827</v>
       </c>
-      <c r="D55" s="6">
+      <c r="E55" s="8">
         <v>-0.03398012051742985</v>
       </c>
-      <c r="E55" s="35">
+      <c r="F55" s="38">
         <v>0.04857444365587539</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="67">
+        <v>59</v>
+      </c>
+      <c r="B56" s="10">
+        <v>-0.02145338007360224</v>
+      </c>
+      <c r="C56" s="78">
         <v>0.7152790847682977</v>
       </c>
-      <c r="C56" s="8">
+      <c r="D56" s="10">
         <v>-0.02090044659877685</v>
       </c>
-      <c r="D56" s="21">
+      <c r="E56" s="22">
         <v>-0.04087639398013466</v>
       </c>
-      <c r="E56" s="14">
+      <c r="F56" s="2">
         <v>0.01116025246171341</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="68">
+        <v>60</v>
+      </c>
+      <c r="B57" s="17">
+        <v>-0.05805618014342451</v>
+      </c>
+      <c r="C57" s="79">
         <v>0.4918887050711419</v>
       </c>
-      <c r="C57" s="21">
+      <c r="D57" s="22">
         <v>-0.04328294750030382</v>
       </c>
-      <c r="D57" s="10">
+      <c r="E57" s="11">
         <v>-0.0474271064573732</v>
       </c>
-      <c r="E57" s="69">
+      <c r="F57" s="80">
         <v>0.242851142709424</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="16">
+        <v>61</v>
+      </c>
+      <c r="B58" s="7">
+        <v>0.006492241512963359</v>
+      </c>
+      <c r="C58" s="17">
         <v>-0.05787851253372221</v>
       </c>
-      <c r="C58" s="8">
+      <c r="D58" s="10">
         <v>-0.01700754269204559</v>
       </c>
-      <c r="D58" s="21">
+      <c r="E58" s="22">
         <v>-0.04348297682486703</v>
       </c>
-      <c r="E58" s="8">
+      <c r="F58" s="10">
         <v>-0.01942583163183298</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="70">
+        <v>62</v>
+      </c>
+      <c r="B59" s="16">
+        <v>-0.005605296700441021</v>
+      </c>
+      <c r="C59" s="81">
         <v>0.9126968755040873</v>
       </c>
-      <c r="C59" s="21">
+      <c r="D59" s="22">
         <v>-0.04527445739740549</v>
       </c>
-      <c r="D59" s="6">
+      <c r="E59" s="8">
         <v>-0.03833592443628451</v>
       </c>
-      <c r="E59" s="63">
+      <c r="F59" s="74">
         <v>0.1928422722352638</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="21">
+        <v>63</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.01720205511382101</v>
+      </c>
+      <c r="C60" s="22">
         <v>-0.045012449980565</v>
       </c>
-      <c r="C60" s="14">
+      <c r="D60" s="2">
         <v>0.01539134891227037</v>
       </c>
-      <c r="D60" s="5">
+      <c r="E60" s="6">
         <v>0.08438395902384839</v>
       </c>
-      <c r="E60" s="7">
+      <c r="F60" s="9">
         <v>-0.01517961846739486</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="71">
+        <v>64</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.01117423256592465</v>
+      </c>
+      <c r="C61" s="82">
         <v>0.3272097486262606</v>
       </c>
-      <c r="C61" s="9">
+      <c r="D61" s="7">
         <v>0.003017151294031871</v>
       </c>
-      <c r="D61" s="33">
+      <c r="E61" s="36">
         <v>0.2953936029623148</v>
       </c>
-      <c r="E61" s="72">
+      <c r="F61" s="83">
         <v>0.6348369394640409</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="50">
+        <v>65</v>
+      </c>
+      <c r="B62" s="48">
+        <v>0.05777371066296402</v>
+      </c>
+      <c r="C62" s="55">
         <v>-0.161858822466457</v>
       </c>
-      <c r="C62" s="35">
+      <c r="D62" s="38">
         <v>0.04853016966545709</v>
       </c>
-      <c r="D62" s="70">
+      <c r="E62" s="81">
         <v>0.9073925444328401</v>
       </c>
-      <c r="E62" s="5">
+      <c r="F62" s="6">
         <v>0.08068203743485214</v>
       </c>
     </row>

--- a/data/valid_factor_loadings_fix.xlsx
+++ b/data/valid_factor_loadings_fix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>factor_1</t>
   </si>
@@ -22,13 +22,52 @@
     <t>factor_2</t>
   </si>
   <si>
+    <t>factor_3</t>
+  </si>
+  <si>
     <t>factor_4</t>
   </si>
   <si>
+    <t>factor_5</t>
+  </si>
+  <si>
+    <t>factor_6</t>
+  </si>
+  <si>
+    <t>factor_7</t>
+  </si>
+  <si>
+    <t>factor_8</t>
+  </si>
+  <si>
+    <t>factor_9</t>
+  </si>
+  <si>
     <t>factor_10</t>
   </si>
   <si>
+    <t>factor_11</t>
+  </si>
+  <si>
+    <t>factor_12</t>
+  </si>
+  <si>
+    <t>factor_13</t>
+  </si>
+  <si>
     <t>factor_14</t>
+  </si>
+  <si>
+    <t>factor_15</t>
+  </si>
+  <si>
+    <t>factor_16</t>
+  </si>
+  <si>
+    <t>factor_17</t>
+  </si>
+  <si>
+    <t>factor_18</t>
   </si>
   <si>
     <t>총자본증가율(IFRS)</t>
@@ -249,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="84">
+  <fills count="125">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +309,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDDCDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD4DBE6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -282,13 +327,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDCDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDCDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1DAD6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC32E31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE7D7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDCDC"/>
+        <fgColor rgb="FFD7DCE3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDADCE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDD2C3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,13 +381,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDBDCDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDADCE0"/>
+        <fgColor rgb="FFBB1B2C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,31 +393,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE3D9D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2DAD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0DBD8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEAD4C8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2DAD5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD2DBE8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE4D9D2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8D6CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCD423B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9DCE1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCDDDD"/>
+        <fgColor rgb="FFCA3B37"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2CAB5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F69D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,13 +471,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC0282F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD3DBE7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE0DBD8"/>
+        <fgColor rgb="FFEBD3C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4257C9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,13 +501,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBB1B2C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD7DCE3"/>
+        <fgColor rgb="FFCBD8EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD5C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1CCB8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECD3C5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +537,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEFCEBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF5C2AA"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -414,6 +561,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC3D5F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDF634E"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,7 +597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1DAD6"/>
+        <fgColor rgb="FFD95847"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,19 +615,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE36C55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF6BEA4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEAD5C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE3D9D3"/>
+        <fgColor rgb="FFF7A688"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5A081"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4C6AF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFDAEA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,12 +663,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFBFD3F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF89ACFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9785D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC7D7F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFBE242E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCAD8EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCD9ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1CDBA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9D7F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF5875E1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -510,13 +729,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE97A5F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB9D0F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCD423B"/>
+        <fgColor rgb="FFC5D6F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCEDAEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA1C0FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1DAE9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC73635"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,13 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0282F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE4D9D2"/>
+        <fgColor rgb="FFCB3E38"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,30 +789,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4C6AF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECD3C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2CBB7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF4C5AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEC7F63"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC12B30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF5C0A7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -594,7 +837,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCD9ED"/>
+        <fgColor rgb="FF96B7FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF779AF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C4AC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8122A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFCFBF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,7 +879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBD3C6"/>
+        <fgColor rgb="FFF08B6E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,6 +891,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF5673E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC4D5F3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -636,6 +909,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE0654F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF5C1A9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -648,7 +927,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2CAB5"/>
+        <fgColor rgb="FFD65244"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC43032"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,18 +945,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE36C55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE36B54"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFED8366"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD75445"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -690,7 +975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF1CCB8"/>
+        <fgColor rgb="FFAAC7FD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,7 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF1CDBA"/>
+        <fgColor rgb="FFF08A6C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,6 +999,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE8765C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE26952"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -726,13 +1017,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4C5AD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC43032"/>
+        <fgColor rgb="FFC83836"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +1061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -789,80 +1074,121 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,13 +1483,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1179,10 +1505,49 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>0.01143107443396187</v>
@@ -1191,1213 +1556,3592 @@
         <v>0.01894865881187662</v>
       </c>
       <c r="D2" s="4">
+        <v>0.007070483992080142</v>
+      </c>
+      <c r="E2" s="5">
         <v>-0.06631892309912221</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="6">
+        <v>0.07497360251096798</v>
+      </c>
+      <c r="G2" s="7">
+        <v>-0.006878693610041072</v>
+      </c>
+      <c r="H2" s="7">
+        <v>-9.340821445936898E-05</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.07598130151912787</v>
+      </c>
+      <c r="J2" s="8">
+        <v>-0.01371156551434023</v>
+      </c>
+      <c r="K2" s="6">
         <v>0.07652246871905787</v>
       </c>
-      <c r="F2" s="6">
+      <c r="L2" s="9">
+        <v>0.03670590390912187</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.002182849367252406</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0.9205120015212415</v>
+      </c>
+      <c r="O2" s="11">
         <v>0.08012668615706586</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="P2" s="12">
+        <v>-0.04378740336693215</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>-0.0193086438900069</v>
+      </c>
+      <c r="R2" s="14">
+        <v>0.1366964121189523</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0.003167366024746928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4">
         <v>0.005161756795406245</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="15">
         <v>-0.03152766719864147</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
+        <v>0.01288462198456085</v>
+      </c>
+      <c r="E3" s="3">
         <v>0.02005193155118464</v>
       </c>
-      <c r="E3" s="9">
+      <c r="F3" s="7">
+        <v>-0.001512827577169076</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.01465820264514458</v>
+      </c>
+      <c r="H3" s="13">
+        <v>-0.02151311216082248</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0.9545209259738705</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.0003193701728947415</v>
+      </c>
+      <c r="K3" s="8">
         <v>-0.009180224614567828</v>
       </c>
-      <c r="F3" s="10">
+      <c r="L3" s="7">
+        <v>-0.005554085320269402</v>
+      </c>
+      <c r="M3" s="7">
+        <v>-0.0004953858915095965</v>
+      </c>
+      <c r="N3" s="15">
+        <v>-0.03571769624385125</v>
+      </c>
+      <c r="O3" s="13">
         <v>-0.01952130845938197</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="P3" s="4">
+        <v>0.004986416636203183</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>-0.001088993363094855</v>
+      </c>
+      <c r="R3" s="15">
+        <v>-0.03199198815378992</v>
+      </c>
+      <c r="S3" s="7">
+        <v>-0.007060578459791749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
         <v>0.009823278974712614</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>0.004358868396787675</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
+        <v>-0.01737426133857087</v>
+      </c>
+      <c r="E4" s="17">
         <v>-0.04923808124164451</v>
       </c>
-      <c r="E4" s="12">
+      <c r="F4" s="18">
+        <v>0.05452486373224882</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.0359082392561331</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.01481821683207061</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0.04286694512636779</v>
+      </c>
+      <c r="J4" s="20">
+        <v>0.02623074103596136</v>
+      </c>
+      <c r="K4" s="21">
         <v>0.1160667615804733</v>
       </c>
-      <c r="F4" s="13">
+      <c r="L4" s="15">
+        <v>-0.03426508974204461</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.005632025331319546</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0.9190438974889586</v>
+      </c>
+      <c r="O4" s="19">
         <v>0.04496137648261091</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="P4" s="7">
+        <v>-0.002300098125817129</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>-0.03378997721269703</v>
+      </c>
+      <c r="R4" s="13">
+        <v>-0.02088550569945478</v>
+      </c>
+      <c r="S4" s="8">
+        <v>-0.01457450535695091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3">
         <v>0.01922021624038071</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="22">
         <v>-0.0802960465551025</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="23">
+        <v>0.05757129352017196</v>
+      </c>
+      <c r="E5" s="13">
         <v>-0.02306822560105151</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="4">
+        <v>0.0008071219027970698</v>
+      </c>
+      <c r="G5" s="8">
+        <v>-0.01243511233310936</v>
+      </c>
+      <c r="H5" s="8">
+        <v>-0.009069548303425134</v>
+      </c>
+      <c r="I5" s="24">
+        <v>0.09244022515152304</v>
+      </c>
+      <c r="J5" s="8">
+        <v>-0.01164107241788899</v>
+      </c>
+      <c r="K5" s="2">
         <v>0.009033463670401705</v>
       </c>
-      <c r="F5" s="7">
+      <c r="L5" s="9">
+        <v>0.0339535803141846</v>
+      </c>
+      <c r="M5" s="7">
+        <v>-0.003787652218405557</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.07376021727010626</v>
+      </c>
+      <c r="O5" s="4">
         <v>0.004596034305631541</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="P5" s="12">
+        <v>-0.0395127029552675</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.03246332476446108</v>
+      </c>
+      <c r="R5" s="25">
+        <v>0.8593208473156723</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0.03698760565775695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="7">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4">
         <v>0.004232303551912825</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>0.004248299809054768</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="7">
+        <v>-0.0003229713287322194</v>
+      </c>
+      <c r="E6" s="26">
         <v>-0.02899192033341618</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="7">
+        <v>-1.176402579454695E-05</v>
+      </c>
+      <c r="G6" s="15">
+        <v>-0.03887116670149931</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.03051725635910008</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0.8780730992379544</v>
+      </c>
+      <c r="J6" s="7">
+        <v>-0.0007233671210754194</v>
+      </c>
+      <c r="K6" s="4">
         <v>0.006989442695891169</v>
       </c>
-      <c r="F6" s="13">
+      <c r="L6" s="15">
+        <v>-0.03737752823344517</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.0007646201999758091</v>
+      </c>
+      <c r="N6" s="24">
+        <v>0.09091580014184762</v>
+      </c>
+      <c r="O6" s="19">
         <v>0.03970173321687076</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="P6" s="4">
+        <v>0.004467851957807668</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>-0.001059579985711634</v>
+      </c>
+      <c r="R6" s="28">
+        <v>0.2083004082862978</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.01228916151249005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="16">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7">
         <v>-0.006262371477250042</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>-0.008198898037149982</v>
       </c>
       <c r="D7" s="9">
+        <v>0.03264629960413296</v>
+      </c>
+      <c r="E7" s="8">
         <v>-0.008989432922740294</v>
       </c>
-      <c r="E7" s="12">
+      <c r="F7" s="26">
+        <v>-0.02496955840560912</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.004434884729170491</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.001361357884293905</v>
+      </c>
+      <c r="I7" s="7">
+        <v>-0.007467399860669406</v>
+      </c>
+      <c r="J7" s="7">
+        <v>-0.006979169589255482</v>
+      </c>
+      <c r="K7" s="21">
         <v>0.1145036917646289</v>
       </c>
-      <c r="F7" s="7">
+      <c r="L7" s="9">
+        <v>0.03232790193776954</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.002637941542795245</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.009033877008631097</v>
+      </c>
+      <c r="O7" s="4">
         <v>0.006302149140296581</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="P7" s="13">
+        <v>-0.01755056397239085</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.01483039316489307</v>
+      </c>
+      <c r="R7" s="29">
+        <v>-0.8641719800916582</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0.02218243731008241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4">
         <v>0.003601749720179703</v>
       </c>
       <c r="C8" s="3">
         <v>0.02187489635900494</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="2">
+        <v>0.009911786716574483</v>
+      </c>
+      <c r="E8" s="30">
         <v>-0.05544885831787191</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="4">
+        <v>0.002725634965442137</v>
+      </c>
+      <c r="G8" s="13">
+        <v>-0.02022807869340663</v>
+      </c>
+      <c r="H8" s="7">
+        <v>-0.001790197655694305</v>
+      </c>
+      <c r="I8" s="31">
+        <v>0.9365516833652653</v>
+      </c>
+      <c r="J8" s="7">
+        <v>-0.002110147706901109</v>
+      </c>
+      <c r="K8" s="2">
         <v>0.008426870835781001</v>
       </c>
-      <c r="F8" s="2">
+      <c r="L8" s="4">
+        <v>0.001994632508423681</v>
+      </c>
+      <c r="M8" s="8">
+        <v>-0.009204310041236789</v>
+      </c>
+      <c r="N8" s="18">
+        <v>0.05232015606376331</v>
+      </c>
+      <c r="O8" s="2">
         <v>0.01467734793223201</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="P8" s="17">
+        <v>-0.04844230409056683</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.002064385455728928</v>
+      </c>
+      <c r="R8" s="17">
+        <v>-0.04828780718782007</v>
+      </c>
+      <c r="S8" s="13">
+        <v>-0.01690678767502576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3">
         <v>0.01734968456257514</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="32">
         <v>-0.07448327794044476</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="33">
+        <v>0.1197720293018137</v>
+      </c>
+      <c r="E9" s="20">
         <v>0.02561600227754066</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="4">
+        <v>0.00188978106288141</v>
+      </c>
+      <c r="G9" s="34">
+        <v>-0.9453394729344685</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0.05153836699412589</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0.02888427236369471</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.0007657172125013328</v>
+      </c>
+      <c r="K9" s="11">
         <v>0.08590745043054891</v>
       </c>
-      <c r="F9" s="20">
+      <c r="L9" s="30">
+        <v>-0.05580656299173756</v>
+      </c>
+      <c r="M9" s="7">
+        <v>-0.001128266096396515</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.004487470073848184</v>
+      </c>
+      <c r="O9" s="35">
         <v>0.06661684785251253</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="P9" s="9">
+        <v>0.03139746639984462</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>0.02502339307984013</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0.04599378490110503</v>
+      </c>
+      <c r="S9" s="19">
+        <v>0.04545603675108564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="13">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19">
         <v>0.04472927753944169</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="13">
         <v>-0.02062127529062023</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="4">
+        <v>0.005529322193043806</v>
+      </c>
+      <c r="E10" s="16">
         <v>0.9591107957652455</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="7">
+        <v>-0.005002246570886957</v>
+      </c>
+      <c r="G10" s="36">
+        <v>-0.1281853782997998</v>
+      </c>
+      <c r="H10" s="7">
+        <v>-0.006311488918206088</v>
+      </c>
+      <c r="I10" s="8">
+        <v>-0.01424051613077113</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.0007806648487347846</v>
+      </c>
+      <c r="K10" s="2">
         <v>0.008834693496281222</v>
       </c>
-      <c r="F10" s="22">
+      <c r="L10" s="3">
+        <v>0.01888750611345072</v>
+      </c>
+      <c r="M10" s="7">
+        <v>-0.00188025605281988</v>
+      </c>
+      <c r="N10" s="26">
+        <v>-0.02724586764920356</v>
+      </c>
+      <c r="O10" s="12">
         <v>-0.03972860386090096</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="P10" s="3">
+        <v>0.02175300164792659</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>-0.00447202507976801</v>
+      </c>
+      <c r="R10" s="7">
+        <v>-0.007764264124659644</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0.007306200737672006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="13">
+        <v>27</v>
+      </c>
+      <c r="B11" s="19">
         <v>0.04469873713191379</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="21">
         <v>0.1116678047344279</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="2">
+        <v>0.01501892503570993</v>
+      </c>
+      <c r="E11" s="7">
         <v>-0.0004965667363642997</v>
       </c>
-      <c r="E11" s="20">
+      <c r="F11" s="37">
+        <v>0.1034507482704148</v>
+      </c>
+      <c r="G11" s="5">
+        <v>-0.06570665955173755</v>
+      </c>
+      <c r="H11" s="38">
+        <v>0.1951614167811626</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.03837333711546241</v>
+      </c>
+      <c r="J11" s="7">
+        <v>-0.005192445510657197</v>
+      </c>
+      <c r="K11" s="35">
         <v>0.06719300275504175</v>
       </c>
-      <c r="F11" s="23">
+      <c r="L11" s="39">
+        <v>0.1327985816015309</v>
+      </c>
+      <c r="M11" s="7">
+        <v>-0.005359632357061721</v>
+      </c>
+      <c r="N11" s="21">
+        <v>0.1121910293999257</v>
+      </c>
+      <c r="O11" s="40">
         <v>0.8449897412918731</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="P11" s="4">
+        <v>0.001521275403363867</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>0.04833445434606883</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0.03280683756285138</v>
+      </c>
+      <c r="S11" s="8">
+        <v>-0.00854117876965735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="12">
+        <v>28</v>
+      </c>
+      <c r="B12" s="21">
         <v>0.1141061521363278</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>0.001915948114978962</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="3">
+        <v>0.02109151350340075</v>
+      </c>
+      <c r="E12" s="41">
         <v>0.760900606131907</v>
       </c>
-      <c r="E12" s="25">
+      <c r="F12" s="23">
+        <v>0.05882400130306655</v>
+      </c>
+      <c r="G12" s="8">
+        <v>-0.01547794475080473</v>
+      </c>
+      <c r="H12" s="42">
+        <v>0.1688404162025748</v>
+      </c>
+      <c r="I12" s="26">
+        <v>-0.02557281388051277</v>
+      </c>
+      <c r="J12" s="7">
+        <v>-0.001896875984025262</v>
+      </c>
+      <c r="K12" s="43">
         <v>0.2603696164749812</v>
       </c>
-      <c r="F12" s="26">
+      <c r="L12" s="19">
+        <v>0.04397017058882341</v>
+      </c>
+      <c r="M12" s="7">
+        <v>-0.00754031282853528</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0.138599082118911</v>
+      </c>
+      <c r="O12" s="44">
         <v>0.3845587429623123</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="P12" s="26">
+        <v>-0.02759033580700185</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.009234731691298091</v>
+      </c>
+      <c r="R12" s="7">
+        <v>-0.004758800122633131</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0.004361456841954663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="27">
+        <v>29</v>
+      </c>
+      <c r="B13" s="45">
         <v>0.3104660263285774</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="19">
         <v>0.04264117247173396</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
+        <v>0.0149018472075824</v>
+      </c>
+      <c r="E13" s="3">
         <v>0.01726579984279806</v>
       </c>
-      <c r="E13" s="10">
+      <c r="F13" s="8">
+        <v>-0.01165211728691882</v>
+      </c>
+      <c r="G13" s="30">
+        <v>-0.0550797898924679</v>
+      </c>
+      <c r="H13" s="46">
+        <v>-0.1819369222219153</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.01361965914188109</v>
+      </c>
+      <c r="J13" s="8">
+        <v>-0.0092497301901018</v>
+      </c>
+      <c r="K13" s="13">
         <v>-0.01573822686353441</v>
       </c>
-      <c r="F13" s="28">
+      <c r="L13" s="20">
+        <v>0.02925904995869011</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.007966244925381137</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0.07035398181021736</v>
+      </c>
+      <c r="O13" s="47">
         <v>0.7400781489821061</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="P13" s="5">
+        <v>-0.06971343812675897</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>0.02371346981606089</v>
+      </c>
+      <c r="R13" s="7">
+        <v>-0.007391518475379698</v>
+      </c>
+      <c r="S13" s="24">
+        <v>0.09363642199716517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="29">
+        <v>30</v>
+      </c>
+      <c r="B14" s="48">
         <v>0.5794730701637508</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>-0.01338994229862134</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="3">
+        <v>0.01855579224621741</v>
+      </c>
+      <c r="E14" s="49">
         <v>0.4600095364962621</v>
       </c>
-      <c r="E14" s="31">
+      <c r="F14" s="4">
+        <v>0.001707634689546104</v>
+      </c>
+      <c r="G14" s="26">
+        <v>-0.03012572243792656</v>
+      </c>
+      <c r="H14" s="13">
+        <v>-0.02143774074243238</v>
+      </c>
+      <c r="I14" s="13">
+        <v>-0.01811395869002074</v>
+      </c>
+      <c r="J14" s="7">
+        <v>-0.005638718878925608</v>
+      </c>
+      <c r="K14" s="50">
         <v>0.09863977503420344</v>
       </c>
-      <c r="F14" s="32">
+      <c r="L14" s="20">
+        <v>0.02731682356330578</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.007030422345196199</v>
+      </c>
+      <c r="N14" s="50">
+        <v>0.1003827422316358</v>
+      </c>
+      <c r="O14" s="51">
         <v>0.4404443213680559</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="P14" s="5">
+        <v>-0.06853326544924965</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0.007661998503131117</v>
+      </c>
+      <c r="R14" s="26">
+        <v>-0.02396766604685678</v>
+      </c>
+      <c r="S14" s="35">
+        <v>0.06671073678481942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3">
         <v>0.01856962304232472</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="20">
         <v>0.03009566722487201</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="31">
+        <v>0.9364241704967957</v>
+      </c>
+      <c r="E15" s="7">
         <v>-0.001143382889944904</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="8">
+        <v>-0.01531054734583194</v>
+      </c>
+      <c r="G15" s="13">
+        <v>-0.01709705267535117</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0.05335237217238565</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.01339314241462813</v>
+      </c>
+      <c r="J15" s="7">
+        <v>-0.001184322677762525</v>
+      </c>
+      <c r="K15" s="2">
         <v>0.008755391750531989</v>
       </c>
-      <c r="F15" s="7">
+      <c r="L15" s="22">
+        <v>-0.08502036602990148</v>
+      </c>
+      <c r="M15" s="8">
+        <v>-0.009453988503750014</v>
+      </c>
+      <c r="N15" s="7">
+        <v>-0.00775991415480214</v>
+      </c>
+      <c r="O15" s="4">
         <v>0.006488887708529049</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="P15" s="2">
+        <v>0.01131098292159158</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0.00612094289343811</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.009349771728908182</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0.01020634365609033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="33">
+        <v>32</v>
+      </c>
+      <c r="B16" s="9">
         <v>0.03707720336181254</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="20">
         <v>0.02795080437224516</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="52">
+        <v>0.7807091945764243</v>
+      </c>
+      <c r="E16" s="53">
         <v>0.2125208465135751</v>
       </c>
-      <c r="E16" s="35">
+      <c r="F16" s="4">
+        <v>0.003981205384342233</v>
+      </c>
+      <c r="G16" s="13">
+        <v>-0.02226818408629337</v>
+      </c>
+      <c r="H16" s="24">
+        <v>0.09118941770271827</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.001726070158143958</v>
+      </c>
+      <c r="J16" s="8">
+        <v>-0.009020166782349064</v>
+      </c>
+      <c r="K16" s="54">
         <v>0.3415689626169037</v>
       </c>
-      <c r="F16" s="19">
+      <c r="L16" s="32">
+        <v>-0.07423158079153065</v>
+      </c>
+      <c r="M16" s="7">
+        <v>-0.006651819412917093</v>
+      </c>
+      <c r="N16" s="18">
+        <v>0.04785624604373572</v>
+      </c>
+      <c r="O16" s="20">
         <v>0.02989886661637653</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="P16" s="8">
+        <v>-0.01005272023355478</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.0107331872690539</v>
+      </c>
+      <c r="R16" s="12">
+        <v>-0.04121545413249646</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.0163999982205675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3">
         <v>0.0180540897440992</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <v>0.002590430996495227</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="4">
+        <v>0.004307375136855167</v>
+      </c>
+      <c r="E17" s="7">
         <v>-0.004197706267086183</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="55">
+        <v>0.7006258112436196</v>
+      </c>
+      <c r="G17" s="13">
+        <v>-0.02267292870240993</v>
+      </c>
+      <c r="H17" s="35">
+        <v>0.06505910657042971</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.006201581139248676</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.01558515829097475</v>
+      </c>
+      <c r="K17" s="2">
         <v>0.0123701457661118</v>
       </c>
-      <c r="F17" s="36">
+      <c r="L17" s="8">
+        <v>-0.01273714753708888</v>
+      </c>
+      <c r="M17" s="7">
+        <v>-0.005848004850369013</v>
+      </c>
+      <c r="N17" s="18">
+        <v>0.04859981901732904</v>
+      </c>
+      <c r="O17" s="56">
         <v>0.2891283944875646</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="P17" s="4">
+        <v>0.001796264201914161</v>
+      </c>
+      <c r="Q17" s="57">
+        <v>0.4331702960716849</v>
+      </c>
+      <c r="R17" s="8">
+        <v>-0.009759568332034287</v>
+      </c>
+      <c r="S17" s="13">
+        <v>-0.0211048049085743</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="33">
+        <v>34</v>
+      </c>
+      <c r="B18" s="9">
         <v>0.03619287289816959</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="26">
         <v>-0.03004498968515375</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="20">
+        <v>0.02799951143385465</v>
+      </c>
+      <c r="E18" s="43">
         <v>0.26298364363566</v>
       </c>
-      <c r="E18" s="37">
+      <c r="F18" s="58">
+        <v>0.464066367468555</v>
+      </c>
+      <c r="G18" s="13">
+        <v>-0.02022061652976104</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.0327174930630843</v>
+      </c>
+      <c r="I18" s="26">
+        <v>-0.0306354137021246</v>
+      </c>
+      <c r="J18" s="7">
+        <v>-0.003839917360523894</v>
+      </c>
+      <c r="K18" s="37">
         <v>0.1050957644076405</v>
       </c>
-      <c r="F18" s="20">
+      <c r="L18" s="13">
+        <v>-0.01789103509020206</v>
+      </c>
+      <c r="M18" s="13">
+        <v>-0.01823914046167102</v>
+      </c>
+      <c r="N18" s="48">
+        <v>0.5820184876908415</v>
+      </c>
+      <c r="O18" s="35">
         <v>0.06920219994727843</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="P18" s="13">
+        <v>-0.01643883474079923</v>
+      </c>
+      <c r="Q18" s="59">
+        <v>0.2393126820294476</v>
+      </c>
+      <c r="R18" s="60">
+        <v>-0.09876739131894985</v>
+      </c>
+      <c r="S18" s="13">
+        <v>-0.01642489497654686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="19">
+        <v>35</v>
+      </c>
+      <c r="B19" s="20">
         <v>0.02538169442199157</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="18">
         <v>0.04738233321621412</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="5">
+        <v>-0.07000376810458663</v>
+      </c>
+      <c r="E19" s="50">
         <v>0.1000584489370729</v>
       </c>
-      <c r="E19" s="39">
+      <c r="F19" s="3">
+        <v>0.01795824634860962</v>
+      </c>
+      <c r="G19" s="36">
+        <v>-0.1305883337907039</v>
+      </c>
+      <c r="H19" s="13">
+        <v>-0.0162283032524584</v>
+      </c>
+      <c r="I19" s="8">
+        <v>-0.01178050682376518</v>
+      </c>
+      <c r="J19" s="18">
+        <v>0.05181002622581211</v>
+      </c>
+      <c r="K19" s="61">
         <v>0.9049870040346615</v>
       </c>
-      <c r="F19" s="15">
+      <c r="L19" s="11">
+        <v>0.07985026188736201</v>
+      </c>
+      <c r="M19" s="7">
+        <v>-0.001084185488100367</v>
+      </c>
+      <c r="N19" s="39">
+        <v>0.1313570761295603</v>
+      </c>
+      <c r="O19" s="26">
         <v>-0.02434474325385119</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="P19" s="62">
+        <v>0.1749245231209246</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>-0.01630110420792455</v>
+      </c>
+      <c r="R19" s="22">
+        <v>-0.07924483082831785</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0.001416931335163171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="33">
+        <v>36</v>
+      </c>
+      <c r="B20" s="9">
         <v>0.03553516516768677</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="9">
         <v>0.03805137818230261</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="63">
+        <v>-0.2076633762326265</v>
+      </c>
+      <c r="E20" s="53">
         <v>0.2157889240825209</v>
       </c>
-      <c r="E20" s="40">
+      <c r="F20" s="3">
+        <v>0.01626500730462442</v>
+      </c>
+      <c r="G20" s="64">
+        <v>-0.5223277299629436</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0.04637788424079426</v>
+      </c>
+      <c r="I20" s="8">
+        <v>-0.007955511382500455</v>
+      </c>
+      <c r="J20" s="7">
+        <v>-0.005649618523421564</v>
+      </c>
+      <c r="K20" s="62">
         <v>0.1767093520999087</v>
       </c>
-      <c r="F20" s="16">
+      <c r="L20" s="23">
+        <v>0.05894013387230623</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.001532132111791063</v>
+      </c>
+      <c r="N20" s="8">
+        <v>-0.010700604439645</v>
+      </c>
+      <c r="O20" s="7">
         <v>-0.003821063931084698</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="P20" s="65">
+        <v>0.6555727684434417</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>-0.01512547253414023</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.02204339189856919</v>
+      </c>
+      <c r="S20" s="50">
+        <v>0.09682095872561003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="9">
+        <v>37</v>
+      </c>
+      <c r="B21" s="8">
         <v>-0.01136136300745327</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="15">
         <v>-0.03861445523416832</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="33">
+        <v>0.1246011315973525</v>
+      </c>
+      <c r="E21" s="66">
         <v>-0.1510502830381614</v>
       </c>
-      <c r="E21" s="10">
+      <c r="F21" s="8">
+        <v>-0.01000371358401164</v>
+      </c>
+      <c r="G21" s="67">
+        <v>0.9438129517237918</v>
+      </c>
+      <c r="H21" s="26">
+        <v>-0.0256033034033661</v>
+      </c>
+      <c r="I21" s="8">
+        <v>-0.009912220017007208</v>
+      </c>
+      <c r="J21" s="7">
+        <v>-0.002276682542361706</v>
+      </c>
+      <c r="K21" s="13">
         <v>-0.01920380331795082</v>
       </c>
-      <c r="F21" s="3">
+      <c r="L21" s="32">
+        <v>-0.07180494024906044</v>
+      </c>
+      <c r="M21" s="7">
+        <v>-0.002102692773754496</v>
+      </c>
+      <c r="N21" s="8">
+        <v>-0.01200470913134155</v>
+      </c>
+      <c r="O21" s="3">
         <v>0.02227816939805699</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="P21" s="68">
+        <v>-0.1394404903940949</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.008991941765527598</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.01364654160460261</v>
+      </c>
+      <c r="S21" s="13">
+        <v>-0.02247385611248985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="8">
+        <v>38</v>
+      </c>
+      <c r="B22" s="15">
         <v>-0.03639192335336008</v>
       </c>
       <c r="C22" s="3">
         <v>0.02147610645554747</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="69">
+        <v>-0.120696066426038</v>
+      </c>
+      <c r="E22" s="30">
         <v>-0.0566298731332504</v>
       </c>
-      <c r="E22" s="42">
+      <c r="F22" s="12">
+        <v>-0.03984554663712289</v>
+      </c>
+      <c r="G22" s="70">
+        <v>0.1822982775451255</v>
+      </c>
+      <c r="H22" s="71">
+        <v>-0.1479246896678912</v>
+      </c>
+      <c r="I22" s="13">
+        <v>-0.0233440813400795</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.02022542109450679</v>
+      </c>
+      <c r="K22" s="72">
         <v>-0.8118548259308939</v>
       </c>
-      <c r="F22" s="43">
+      <c r="L22" s="9">
+        <v>0.03867493840009036</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.005389727595181224</v>
+      </c>
+      <c r="N22" s="8">
+        <v>-0.01026405594181502</v>
+      </c>
+      <c r="O22" s="73">
         <v>-0.2213537513550984</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="P22" s="7">
+        <v>-0.001401466802700902</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>-0.04135113741471091</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0.03211404176895235</v>
+      </c>
+      <c r="S22" s="69">
+        <v>-0.1176288071434842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="22">
+        <v>39</v>
+      </c>
+      <c r="B23" s="12">
         <v>-0.04631343439022511</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="22">
         <v>-0.08185400371778247</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="74">
+        <v>0.6469917529703225</v>
+      </c>
+      <c r="E23" s="75">
         <v>-0.2460616222780047</v>
       </c>
-      <c r="E23" s="7">
+      <c r="F23" s="12">
+        <v>-0.04491270629354838</v>
+      </c>
+      <c r="G23" s="37">
+        <v>0.1035856429896269</v>
+      </c>
+      <c r="H23" s="76">
+        <v>-0.1715522861127263</v>
+      </c>
+      <c r="I23" s="7">
+        <v>-0.002496910948136601</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.008751391201712037</v>
+      </c>
+      <c r="K23" s="4">
         <v>0.003326678574691789</v>
       </c>
-      <c r="F23" s="15">
+      <c r="L23" s="77">
+        <v>-0.109030212842205</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.001405474798508991</v>
+      </c>
+      <c r="N23" s="26">
+        <v>-0.02825946311134202</v>
+      </c>
+      <c r="O23" s="26">
         <v>-0.03089378319861297</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="P23" s="78">
+        <v>-0.3856480142058255</v>
+      </c>
+      <c r="Q23" s="20">
+        <v>0.03026429089339087</v>
+      </c>
+      <c r="R23" s="23">
+        <v>0.05877362745272504</v>
+      </c>
+      <c r="S23" s="63">
+        <v>-0.2077025462891538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="38">
+        <v>40</v>
+      </c>
+      <c r="B24" s="18">
         <v>0.053229671203981</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="30">
         <v>-0.05587438535718198</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="8">
+        <v>-0.01079858672402173</v>
+      </c>
+      <c r="E24" s="25">
         <v>0.8586935518994202</v>
       </c>
-      <c r="E24" s="19">
+      <c r="F24" s="7">
+        <v>-0.003522194631120895</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.07694373696051141</v>
+      </c>
+      <c r="H24" s="26">
+        <v>-0.02418456224555428</v>
+      </c>
+      <c r="I24" s="15">
+        <v>-0.03271714361613886</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.000381085436156542</v>
+      </c>
+      <c r="K24" s="20">
         <v>0.02913430124389385</v>
       </c>
-      <c r="F24" s="10">
+      <c r="L24" s="26">
+        <v>-0.0300704429982569</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.002408518147642774</v>
+      </c>
+      <c r="N24" s="79">
+        <v>-0.09349847057448826</v>
+      </c>
+      <c r="O24" s="13">
         <v>-0.02126947825183987</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="P24" s="54">
+        <v>0.3423342978285903</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>-0.006057559280183341</v>
+      </c>
+      <c r="R24" s="7">
+        <v>-0.002477753154164104</v>
+      </c>
+      <c r="S24" s="8">
+        <v>-0.00783015817860864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2">
         <v>0.009705857653287941</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="13">
         <v>-0.01787587196945317</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
+        <v>-0.01089809561220786</v>
+      </c>
+      <c r="E25" s="8">
         <v>-0.008011868801527362</v>
       </c>
-      <c r="E25" s="46">
+      <c r="F25" s="4">
+        <v>0.006602481134027712</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.02048264437486956</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.01868127665481831</v>
+      </c>
+      <c r="I25" s="7">
+        <v>-0.00360794041601734</v>
+      </c>
+      <c r="J25" s="80">
+        <v>0.8949126944730674</v>
+      </c>
+      <c r="K25" s="81">
         <v>0.1558277176036227</v>
       </c>
-      <c r="F25" s="16">
+      <c r="L25" s="9">
+        <v>0.03422628062494844</v>
+      </c>
+      <c r="M25" s="7">
+        <v>-0.002215877185124656</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.02063730924976515</v>
+      </c>
+      <c r="O25" s="7">
         <v>-0.004101424915173038</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="P25" s="8">
+        <v>-0.01251016271021254</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>-0.003202701934233281</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0.0002043000208029609</v>
+      </c>
+      <c r="S25" s="26">
+        <v>-0.02878386615031962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="7">
+        <v>42</v>
+      </c>
+      <c r="B26" s="4">
         <v>0.006526690201818642</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="7">
         <v>-0.006617935127872169</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="4">
+        <v>0.001222597039041073</v>
+      </c>
+      <c r="E26" s="4">
         <v>0.002254075728208873</v>
       </c>
-      <c r="E26" s="22">
+      <c r="F26" s="4">
+        <v>0.007633592029302412</v>
+      </c>
+      <c r="G26" s="8">
+        <v>-0.01135886635350196</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.01763947938579536</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.0003180917664116952</v>
+      </c>
+      <c r="J26" s="82">
+        <v>0.8716220173330694</v>
+      </c>
+      <c r="K26" s="12">
         <v>-0.03992569141452755</v>
       </c>
-      <c r="F26" s="2">
+      <c r="L26" s="9">
+        <v>0.03432694210372982</v>
+      </c>
+      <c r="M26" s="7">
+        <v>-0.003642897293089155</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.001227960638808426</v>
+      </c>
+      <c r="O26" s="2">
         <v>0.008882142062062942</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="P26" s="7">
+        <v>-0.005289257850134853</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0.005102817844266758</v>
+      </c>
+      <c r="R26" s="7">
+        <v>-0.006447954595161728</v>
+      </c>
+      <c r="S26" s="35">
+        <v>0.06522896066671441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="38">
+        <v>43</v>
+      </c>
+      <c r="B27" s="18">
         <v>0.05281472531062095</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="12">
         <v>-0.04344321382515582</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="8">
+        <v>-0.01284240734574692</v>
+      </c>
+      <c r="E27" s="2">
         <v>0.01084611828802547</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="61">
+        <v>0.8986395960657965</v>
+      </c>
+      <c r="G27" s="13">
+        <v>-0.01760960369911079</v>
+      </c>
+      <c r="H27" s="35">
+        <v>0.06578235145012533</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.00183291343371598</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.002968365143639016</v>
+      </c>
+      <c r="K27" s="2">
         <v>0.01291715259977607</v>
       </c>
-      <c r="F27" s="17">
+      <c r="L27" s="32">
+        <v>-0.07698538253467985</v>
+      </c>
+      <c r="M27" s="8">
+        <v>-0.008093566195509614</v>
+      </c>
+      <c r="N27" s="14">
+        <v>0.1358031024716298</v>
+      </c>
+      <c r="O27" s="30">
         <v>-0.05928544660336699</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="P27" s="7">
+        <v>-0.007777346438965005</v>
+      </c>
+      <c r="Q27" s="38">
+        <v>0.195210639908293</v>
+      </c>
+      <c r="R27" s="18">
+        <v>0.05075546446404918</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0.01218731593425981</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="47">
+        <v>44</v>
+      </c>
+      <c r="B28" s="31">
         <v>0.9363000725383218</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="23">
         <v>0.05855172858636218</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="13">
+        <v>-0.01798606148555154</v>
+      </c>
+      <c r="E28" s="23">
         <v>0.05603594948729858</v>
       </c>
-      <c r="E28" s="19">
+      <c r="F28" s="4">
+        <v>0.00610742168055027</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.006567978296044064</v>
+      </c>
+      <c r="H28" s="30">
+        <v>-0.0588313988774018</v>
+      </c>
+      <c r="I28" s="7">
+        <v>-0.00324651415236186</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.008268392354049744</v>
+      </c>
+      <c r="K28" s="20">
         <v>0.03025231660889355</v>
       </c>
-      <c r="F28" s="31">
+      <c r="L28" s="20">
+        <v>0.02553475578351303</v>
+      </c>
+      <c r="M28" s="8">
+        <v>-0.009169747842484824</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.01021813106544513</v>
+      </c>
+      <c r="O28" s="50">
         <v>0.1009754453303304</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="P28" s="4">
+        <v>0.006781119925982252</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0.01299268976084614</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0.005565985621854986</v>
+      </c>
+      <c r="S28" s="7">
+        <v>-0.003649922177502839</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="49">
+        <v>45</v>
+      </c>
+      <c r="B29" s="83">
         <v>0.8069912012609426</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="15">
         <v>-0.03445545661472538</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="7">
+        <v>-0.00528758386081807</v>
+      </c>
+      <c r="E29" s="59">
         <v>0.2418928080045563</v>
       </c>
-      <c r="E29" s="13">
+      <c r="F29" s="24">
+        <v>0.09089092913182369</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.005553349555805817</v>
+      </c>
+      <c r="H29" s="42">
+        <v>0.1650694824091682</v>
+      </c>
+      <c r="I29" s="7">
+        <v>-0.003587296185425953</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.006355550583826517</v>
+      </c>
+      <c r="K29" s="19">
         <v>0.04376047228608596</v>
       </c>
-      <c r="F29" s="51">
+      <c r="L29" s="13">
+        <v>-0.01735927970822607</v>
+      </c>
+      <c r="M29" s="7">
+        <v>-0.002231037827315194</v>
+      </c>
+      <c r="N29" s="12">
+        <v>-0.03920635946548841</v>
+      </c>
+      <c r="O29" s="39">
         <v>0.1259252407976591</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="P29" s="19">
+        <v>0.04488662403348907</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>-0.02066354254682774</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0.02331458339795398</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0.006684201817656775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3">
         <v>0.01825116237996304</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="30">
         <v>-0.05642619322238735</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="2">
+        <v>0.008870256712307203</v>
+      </c>
+      <c r="E30" s="8">
         <v>-0.012573567099577</v>
       </c>
-      <c r="E30" s="19">
+      <c r="F30" s="40">
+        <v>0.8476996821216025</v>
+      </c>
+      <c r="G30" s="7">
+        <v>-0.00671873172352744</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0.0497497742133224</v>
+      </c>
+      <c r="I30" s="7">
+        <v>-0.002610150953376729</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0.03186692919359156</v>
+      </c>
+      <c r="K30" s="20">
         <v>0.03053298152988557</v>
       </c>
-      <c r="F30" s="52">
+      <c r="L30" s="4">
+        <v>0.001224142582283824</v>
+      </c>
+      <c r="M30" s="7">
+        <v>-0.003110859673983154</v>
+      </c>
+      <c r="N30" s="35">
+        <v>0.0635137671151384</v>
+      </c>
+      <c r="O30" s="84">
         <v>0.1974124653538143</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="P30" s="20">
+        <v>0.03117528763285479</v>
+      </c>
+      <c r="Q30" s="59">
+        <v>0.2354829357776156</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.01265108925829823</v>
+      </c>
+      <c r="S30" s="8">
+        <v>-0.01463566873917285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2">
         <v>0.01047324271240575</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="26">
         <v>-0.02620898197460887</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="23">
+        <v>0.05984369109597778</v>
+      </c>
+      <c r="E31" s="12">
         <v>-0.04417828640107264</v>
       </c>
-      <c r="E31" s="48">
+      <c r="F31" s="39">
+        <v>0.1289629026830214</v>
+      </c>
+      <c r="G31" s="20">
+        <v>0.02791472184718805</v>
+      </c>
+      <c r="H31" s="24">
+        <v>0.08801768094930511</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.003675216452383973</v>
+      </c>
+      <c r="J31" s="20">
+        <v>0.0239850058316503</v>
+      </c>
+      <c r="K31" s="23">
         <v>0.06072381341623743</v>
       </c>
-      <c r="F31" s="53">
+      <c r="L31" s="85">
+        <v>0.2427386948455898</v>
+      </c>
+      <c r="M31" s="7">
+        <v>-0.001344805670525432</v>
+      </c>
+      <c r="N31" s="13">
+        <v>-0.02165927339895629</v>
+      </c>
+      <c r="O31" s="86">
         <v>0.6210472770109197</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="P31" s="6">
+        <v>0.07632964755275624</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>-0.04271725794269522</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0.01137669660111884</v>
+      </c>
+      <c r="S31" s="13">
+        <v>-0.02327661650676277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="22">
+        <v>48</v>
+      </c>
+      <c r="B32" s="12">
         <v>-0.03917428918859734</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="19">
         <v>0.04424129008462691</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="68">
+        <v>-0.1383271912917591</v>
+      </c>
+      <c r="E32" s="4">
         <v>0.001140596439506646</v>
       </c>
-      <c r="E32" s="10">
+      <c r="F32" s="15">
+        <v>-0.03451946952644051</v>
+      </c>
+      <c r="G32" s="13">
+        <v>-0.01836048482480492</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.009579152330630386</v>
+      </c>
+      <c r="I32" s="13">
+        <v>-0.01713522007281093</v>
+      </c>
+      <c r="J32" s="19">
+        <v>0.04270640828307592</v>
+      </c>
+      <c r="K32" s="13">
         <v>-0.01894523475838869</v>
       </c>
-      <c r="F32" s="31">
+      <c r="L32" s="67">
+        <v>0.9400817527857185</v>
+      </c>
+      <c r="M32" s="13">
+        <v>-0.02060529203934587</v>
+      </c>
+      <c r="N32" s="13">
+        <v>-0.02071379912465512</v>
+      </c>
+      <c r="O32" s="50">
         <v>0.09547265302481607</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="P32" s="8">
+        <v>-0.0111386438795921</v>
+      </c>
+      <c r="Q32" s="26">
+        <v>-0.02840044663615617</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0.001693423922783242</v>
+      </c>
+      <c r="S32" s="13">
+        <v>-0.02033232652790738</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="10">
+        <v>49</v>
+      </c>
+      <c r="B33" s="13">
         <v>-0.02174407397681467</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="32">
         <v>-0.07468764069301642</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="8">
+        <v>-0.01207399194692786</v>
+      </c>
+      <c r="E33" s="7">
         <v>-0.002627726904741237</v>
       </c>
-      <c r="E33" s="10">
+      <c r="F33" s="26">
+        <v>-0.02736276398222572</v>
+      </c>
+      <c r="G33" s="7">
+        <v>-0.003075496265864533</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.01972597063133067</v>
+      </c>
+      <c r="I33" s="8">
+        <v>-0.01320259274376659</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0.03694756501275189</v>
+      </c>
+      <c r="K33" s="13">
         <v>-0.01914877347998815</v>
       </c>
-      <c r="F33" s="12">
+      <c r="L33" s="87">
+        <v>0.9276989325081121</v>
+      </c>
+      <c r="M33" s="13">
+        <v>-0.01891790740970252</v>
+      </c>
+      <c r="N33" s="13">
+        <v>-0.01770678228609962</v>
+      </c>
+      <c r="O33" s="21">
         <v>0.1134409724493006</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="P33" s="4">
+        <v>0.0004841101902915715</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>-0.003750508783134876</v>
+      </c>
+      <c r="R33" s="20">
+        <v>0.02709972671663138</v>
+      </c>
+      <c r="S33" s="7">
+        <v>-0.002853319253961326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="54">
+        <v>50</v>
+      </c>
+      <c r="B34" s="88">
         <v>0.2756170573151367</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="89">
         <v>-0.1572351159663819</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="9">
+        <v>0.03720030224851503</v>
+      </c>
+      <c r="E34" s="18">
         <v>0.05394589097073495</v>
       </c>
-      <c r="E34" s="37">
+      <c r="F34" s="9">
+        <v>0.03819179342964383</v>
+      </c>
+      <c r="G34" s="26">
+        <v>-0.02919752955368698</v>
+      </c>
+      <c r="H34" s="82">
+        <v>0.870489869016451</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.01162852151272449</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.0194821607961915</v>
+      </c>
+      <c r="K34" s="37">
         <v>0.1072034214255066</v>
       </c>
-      <c r="F34" s="6">
+      <c r="L34" s="32">
+        <v>-0.07066696379327433</v>
+      </c>
+      <c r="M34" s="13">
+        <v>-0.01773914820650533</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0.01495630095835449</v>
+      </c>
+      <c r="O34" s="11">
         <v>0.08488070939941875</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="P34" s="35">
+        <v>0.07004277907196033</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.00977825836792824</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0.01275170831451332</v>
+      </c>
+      <c r="S34" s="70">
+        <v>0.1851641086644476</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="56">
+        <v>51</v>
+      </c>
+      <c r="B35" s="90">
         <v>-0.8734032205600303</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="17">
         <v>-0.04904466965437882</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="2">
+        <v>0.01356858310667862</v>
+      </c>
+      <c r="E35" s="35">
         <v>0.06771844863043296</v>
       </c>
-      <c r="E35" s="15">
+      <c r="F35" s="13">
+        <v>-0.02189972160541939</v>
+      </c>
+      <c r="G35" s="7">
+        <v>-0.007019771279867693</v>
+      </c>
+      <c r="H35" s="69">
+        <v>-0.1219428433198485</v>
+      </c>
+      <c r="I35" s="8">
+        <v>-0.009335873605263653</v>
+      </c>
+      <c r="J35" s="7">
+        <v>-0.003571128301248055</v>
+      </c>
+      <c r="K35" s="26">
         <v>-0.02461843910225237</v>
       </c>
-      <c r="F35" s="20">
+      <c r="L35" s="68">
+        <v>-0.137469705551245</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0.006128493677505582</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0.007887050238581753</v>
+      </c>
+      <c r="O35" s="35">
         <v>0.06801168682575219</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="P35" s="15">
+        <v>-0.03740533122399848</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>0.001098882398918885</v>
+      </c>
+      <c r="R35" s="8">
+        <v>-0.01058558099186441</v>
+      </c>
+      <c r="S35" s="20">
+        <v>0.03094625462931296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="57">
+        <v>52</v>
+      </c>
+      <c r="B36" s="91">
         <v>-0.2755874955476949</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="35">
         <v>0.06627740694589866</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="18">
+        <v>0.04973569793505634</v>
+      </c>
+      <c r="E36" s="15">
         <v>-0.03357771348691014</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" s="8">
+        <v>-0.01559069185453226</v>
+      </c>
+      <c r="G36" s="19">
+        <v>0.04398288096705403</v>
+      </c>
+      <c r="H36" s="92">
+        <v>-0.4462478688483236</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0.00504529846543478</v>
+      </c>
+      <c r="J36" s="26">
+        <v>-0.02485234974514042</v>
+      </c>
+      <c r="K36" s="3">
         <v>0.01805387749313952</v>
       </c>
-      <c r="F36" s="58">
+      <c r="L36" s="93">
+        <v>-0.6197882253424436</v>
+      </c>
+      <c r="M36" s="26">
+        <v>-0.02860374263541973</v>
+      </c>
+      <c r="N36" s="26">
+        <v>-0.03033846968403723</v>
+      </c>
+      <c r="O36" s="69">
         <v>-0.1175815625810818</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="P36" s="7">
+        <v>-0.003956671579795723</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>-0.01539019307491308</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0.01357707053681175</v>
+      </c>
+      <c r="S36" s="60">
+        <v>-0.09726505082191796</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="33">
+        <v>53</v>
+      </c>
+      <c r="B37" s="9">
         <v>0.03642496410001367</v>
       </c>
-      <c r="C37" s="58">
+      <c r="C37" s="69">
         <v>-0.1184788538625648</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="17">
+        <v>-0.05440333658109242</v>
+      </c>
+      <c r="E37" s="9">
         <v>0.03633938829342219</v>
       </c>
-      <c r="E37" s="6">
+      <c r="F37" s="13">
+        <v>-0.01671500093356305</v>
+      </c>
+      <c r="G37" s="8">
+        <v>-0.009395144228662269</v>
+      </c>
+      <c r="H37" s="94">
+        <v>0.2508621019639411</v>
+      </c>
+      <c r="I37" s="7">
+        <v>-0.0008715445056372808</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.0181113648824234</v>
+      </c>
+      <c r="K37" s="11">
         <v>0.0804078983052431</v>
       </c>
-      <c r="F37" s="8">
+      <c r="L37" s="50">
+        <v>0.09490709908630132</v>
+      </c>
+      <c r="M37" s="8">
+        <v>-0.01326849122301101</v>
+      </c>
+      <c r="N37" s="7">
+        <v>-0.004942098636153464</v>
+      </c>
+      <c r="O37" s="15">
         <v>-0.0352961522641294</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="P37" s="53">
+        <v>0.2112110401291422</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>-0.006057480848421494</v>
+      </c>
+      <c r="R37" s="7">
+        <v>-0.001927199380434476</v>
+      </c>
+      <c r="S37" s="82">
+        <v>0.8674592115561246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B38" s="3">
         <v>0.01977876449022137</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="32">
         <v>-0.07781308137048271</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="26">
+        <v>-0.02838824866605498</v>
+      </c>
+      <c r="E38" s="7">
         <v>-0.0007829439247362516</v>
       </c>
-      <c r="E38" s="48">
+      <c r="F38" s="8">
+        <v>-0.01268308509867867</v>
+      </c>
+      <c r="G38" s="7">
+        <v>-0.005857163141656794</v>
+      </c>
+      <c r="H38" s="50">
+        <v>0.09446460584142302</v>
+      </c>
+      <c r="I38" s="8">
+        <v>-0.01176948073478328</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.01437836652983367</v>
+      </c>
+      <c r="K38" s="23">
         <v>0.05712568226581316</v>
       </c>
-      <c r="F38" s="15">
+      <c r="L38" s="15">
+        <v>-0.03156127170142915</v>
+      </c>
+      <c r="M38" s="8">
+        <v>-0.008410524989891989</v>
+      </c>
+      <c r="N38" s="8">
+        <v>-0.01445138053563769</v>
+      </c>
+      <c r="O38" s="26">
         <v>-0.02713692427541725</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="P38" s="7">
+        <v>-0.00477511602288294</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>-0.007941675465808902</v>
+      </c>
+      <c r="R38" s="3">
+        <v>0.01757544567584026</v>
+      </c>
+      <c r="S38" s="31">
+        <v>0.9337042997454246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="7">
+        <v>55</v>
+      </c>
+      <c r="B39" s="4">
         <v>0.007258330710696086</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="15">
         <v>-0.03888544734175581</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="4">
+        <v>0.002321037752665557</v>
+      </c>
+      <c r="E39" s="7">
         <v>-0.0039703786561058</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="88">
+        <v>0.2736301881094663</v>
+      </c>
+      <c r="G39" s="7">
+        <v>-0.004642482584420425</v>
+      </c>
+      <c r="H39" s="7">
+        <v>-0.007385849703645043</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0.001492674072412428</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0.005409233167933456</v>
+      </c>
+      <c r="K39" s="3">
         <v>0.02184453802159746</v>
       </c>
-      <c r="F39" s="19">
+      <c r="L39" s="13">
+        <v>-0.01727356927187344</v>
+      </c>
+      <c r="M39" s="7">
+        <v>-0.00466587402577077</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0.01495004571344863</v>
+      </c>
+      <c r="O39" s="20">
         <v>0.02926693990384912</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="P39" s="4">
+        <v>0.001046167406340923</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>0.9178962678997838</v>
+      </c>
+      <c r="R39" s="7">
+        <v>-0.003162817617460915</v>
+      </c>
+      <c r="S39" s="8">
+        <v>-0.008418750739288177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="7">
+        <v>56</v>
+      </c>
+      <c r="B40" s="4">
         <v>0.003904879422989952</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="19">
         <v>0.04505855326815121</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="7">
+        <v>-0.004803259384159525</v>
+      </c>
+      <c r="E40" s="7">
         <v>-0.002217905141420784</v>
       </c>
-      <c r="E40" s="7">
+      <c r="F40" s="8">
+        <v>-0.009723686985947692</v>
+      </c>
+      <c r="G40" s="7">
+        <v>-0.001167384733954586</v>
+      </c>
+      <c r="H40" s="8">
+        <v>-0.009036368425476242</v>
+      </c>
+      <c r="I40" s="7">
+        <v>-0.001610733897648572</v>
+      </c>
+      <c r="J40" s="7">
+        <v>-0.003218407840815028</v>
+      </c>
+      <c r="K40" s="4">
         <v>0.002690212753291395</v>
       </c>
-      <c r="F40" s="16">
+      <c r="L40" s="7">
+        <v>-0.00569202423227985</v>
+      </c>
+      <c r="M40" s="95">
+        <v>0.9692904984264532</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0.004426359680763581</v>
+      </c>
+      <c r="O40" s="7">
         <v>-0.00209389444371422</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="P40" s="7">
+        <v>-0.00454818482855314</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>-0.003527162790384743</v>
+      </c>
+      <c r="R40" s="7">
+        <v>-0.001228167998925192</v>
+      </c>
+      <c r="S40" s="7">
+        <v>-0.007539274528584414</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2">
         <v>0.01105122507799514</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="7">
         <v>-0.007610992185694493</v>
       </c>
       <c r="D41" s="7">
+        <v>-0.0009324836669616498</v>
+      </c>
+      <c r="E41" s="4">
         <v>0.001344682303950369</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41" s="96">
+        <v>0.1632079845252553</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0.00131764399298076</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-0.03288330549570154</v>
+      </c>
+      <c r="I41" s="7">
+        <v>-0.001330649712351469</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0.006273695706968754</v>
+      </c>
+      <c r="K41" s="2">
         <v>0.01378250747129413</v>
       </c>
-      <c r="F41" s="8">
+      <c r="L41" s="26">
+        <v>-0.02439711515518015</v>
+      </c>
+      <c r="M41" s="7">
+        <v>-0.001034219609555</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0.001414399308661209</v>
+      </c>
+      <c r="O41" s="15">
         <v>-0.03805647418243305</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="P41" s="8">
+        <v>-0.009848289263190495</v>
+      </c>
+      <c r="Q41" s="87">
+        <v>0.9218862165673508</v>
+      </c>
+      <c r="R41" s="20">
+        <v>0.02396943350516326</v>
+      </c>
+      <c r="S41" s="7">
+        <v>-0.002296155507266607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="59">
+        <v>58</v>
+      </c>
+      <c r="B42" s="97">
         <v>-0.9370020212002864</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="7">
         <v>-0.004112525199883825</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="8">
+        <v>-0.01432632032947459</v>
+      </c>
+      <c r="E42" s="9">
         <v>0.03486938241591978</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="7">
+        <v>-0.003328238244791256</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.007514702617903091</v>
+      </c>
+      <c r="H42" s="68">
+        <v>-0.1333478843167173</v>
+      </c>
+      <c r="I42" s="8">
+        <v>-0.007889957245523603</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0.0007202737469937596</v>
+      </c>
+      <c r="K42" s="2">
         <v>0.01062661047796137</v>
       </c>
-      <c r="F42" s="60">
+      <c r="L42" s="4">
+        <v>0.003048812125444225</v>
+      </c>
+      <c r="M42" s="8">
+        <v>-0.01420000669755572</v>
+      </c>
+      <c r="N42" s="26">
+        <v>-0.02675214484597572</v>
+      </c>
+      <c r="O42" s="98">
         <v>-0.1141321526500274</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="P42" s="4">
+        <v>0.002695660893566929</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>-0.01370120381293243</v>
+      </c>
+      <c r="R42" s="2">
+        <v>0.00860586905409891</v>
+      </c>
+      <c r="S42" s="30">
+        <v>-0.05492822549295354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="7">
+        <v>59</v>
+      </c>
+      <c r="B43" s="4">
         <v>0.003266249629186303</v>
       </c>
       <c r="C43" s="2">
         <v>0.007955308805528982</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="7">
+        <v>-0.004608102272989279</v>
+      </c>
+      <c r="E43" s="7">
         <v>-0.002560321200601014</v>
       </c>
-      <c r="E43" s="10">
+      <c r="F43" s="7">
+        <v>-0.003289831553948245</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.0006122204671162728</v>
+      </c>
+      <c r="H43" s="15">
+        <v>-0.03709376459457013</v>
+      </c>
+      <c r="I43" s="7">
+        <v>-0.007243422254166065</v>
+      </c>
+      <c r="J43" s="7">
+        <v>-0.003539407377775683</v>
+      </c>
+      <c r="K43" s="13">
         <v>-0.01692272269873912</v>
       </c>
-      <c r="F43" s="10">
+      <c r="L43" s="26">
+        <v>-0.02667507476235933</v>
+      </c>
+      <c r="M43" s="95">
+        <v>0.9698233097919432</v>
+      </c>
+      <c r="N43" s="7">
+        <v>-0.003688871870822557</v>
+      </c>
+      <c r="O43" s="13">
         <v>-0.01676197856573285</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="P43" s="7">
+        <v>-0.004038703603528208</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>-0.002923888353873474</v>
+      </c>
+      <c r="R43" s="7">
+        <v>-0.005517883997757853</v>
+      </c>
+      <c r="S43" s="8">
+        <v>-0.01143993832027705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="61">
+        <v>60</v>
+      </c>
+      <c r="B44" s="33">
         <v>0.1236973450155033</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="5">
         <v>-0.0681347018362717</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="60">
+        <v>-0.09521106491567566</v>
+      </c>
+      <c r="E44" s="23">
         <v>0.05477443214707031</v>
       </c>
-      <c r="E44" s="38">
+      <c r="F44" s="2">
+        <v>0.01413431746631648</v>
+      </c>
+      <c r="G44" s="17">
+        <v>-0.04915776844405379</v>
+      </c>
+      <c r="H44" s="99">
+        <v>0.5676409312074964</v>
+      </c>
+      <c r="I44" s="7">
+        <v>-0.005957956975664187</v>
+      </c>
+      <c r="J44" s="9">
+        <v>0.03656585526674128</v>
+      </c>
+      <c r="K44" s="18">
         <v>0.04973824548125882</v>
       </c>
-      <c r="F44" s="51">
+      <c r="L44" s="55">
+        <v>0.6977730184536244</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0.002012809664839957</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0.0222905300935013</v>
+      </c>
+      <c r="O44" s="39">
         <v>0.1305953450705255</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="P44" s="20">
+        <v>0.02413668059881234</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>0.006120997242452922</v>
+      </c>
+      <c r="R44" s="7">
+        <v>-0.002174192460395705</v>
+      </c>
+      <c r="S44" s="14">
+        <v>0.133803652967265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="62">
+        <v>61</v>
+      </c>
+      <c r="B45" s="100">
         <v>-0.2111045668104614</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="9">
         <v>0.03677646041869941</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="23">
+        <v>0.05577993564267804</v>
+      </c>
+      <c r="E45" s="17">
         <v>-0.046970993493069</v>
       </c>
-      <c r="E45" s="58">
+      <c r="F45" s="79">
+        <v>-0.08913094448830944</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0.03667955130910251</v>
+      </c>
+      <c r="H45" s="101">
+        <v>-0.8154823833487767</v>
+      </c>
+      <c r="I45" s="7">
+        <v>-0.001656961565969981</v>
+      </c>
+      <c r="J45" s="12">
+        <v>-0.04392341972192676</v>
+      </c>
+      <c r="K45" s="69">
         <v>-0.1223799356491803</v>
       </c>
-      <c r="F45" s="41">
+      <c r="L45" s="76">
+        <v>-0.1693090453818474</v>
+      </c>
+      <c r="M45" s="19">
+        <v>0.04276089454831442</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0.002400332124539096</v>
+      </c>
+      <c r="O45" s="66">
         <v>-0.1523448171345399</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="P45" s="17">
+        <v>-0.04804172095873946</v>
+      </c>
+      <c r="Q45" s="19">
+        <v>0.0419861480591746</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0.008638353881000243</v>
+      </c>
+      <c r="S45" s="69">
+        <v>-0.1220875878107962</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="33">
+        <v>62</v>
+      </c>
+      <c r="B46" s="9">
         <v>0.03882689305376748</v>
       </c>
-      <c r="C46" s="63">
+      <c r="C46" s="102">
         <v>-0.1763456121466735</v>
       </c>
-      <c r="D46" s="64">
+      <c r="D46" s="15">
+        <v>-0.03833316043510836</v>
+      </c>
+      <c r="E46" s="103">
         <v>0.409135565013693</v>
       </c>
-      <c r="E46" s="11">
+      <c r="F46" s="12">
+        <v>-0.04222621234112613</v>
+      </c>
+      <c r="G46" s="104">
+        <v>0.7316418567211815</v>
+      </c>
+      <c r="H46" s="7">
+        <v>-0.001248123189647242</v>
+      </c>
+      <c r="I46" s="7">
+        <v>-0.007401654802270575</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0.006192596661927297</v>
+      </c>
+      <c r="K46" s="17">
         <v>-0.05289022135423686</v>
       </c>
-      <c r="F46" s="18">
+      <c r="L46" s="12">
+        <v>-0.0422753243664235</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0.002090883324448959</v>
+      </c>
+      <c r="N46" s="11">
+        <v>0.08325232802082684</v>
+      </c>
+      <c r="O46" s="32">
         <v>-0.07292623427363736</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="P46" s="14">
+        <v>0.1367055731833527</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>0.007288657692128437</v>
+      </c>
+      <c r="R46" s="20">
+        <v>0.02555938286450856</v>
+      </c>
+      <c r="S46" s="24">
+        <v>0.09259775780441125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="19">
+        <v>63</v>
+      </c>
+      <c r="B47" s="20">
         <v>0.02791781072404654</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="26">
         <v>-0.02540795240970662</v>
       </c>
-      <c r="D47" s="65">
+      <c r="D47" s="4">
+        <v>0.0001930058058064625</v>
+      </c>
+      <c r="E47" s="105">
         <v>0.2675402420535906</v>
       </c>
-      <c r="E47" s="31">
+      <c r="F47" s="7">
+        <v>-0.00269012087837674</v>
+      </c>
+      <c r="G47" s="20">
+        <v>0.02380079772100194</v>
+      </c>
+      <c r="H47" s="38">
+        <v>0.1878965275644765</v>
+      </c>
+      <c r="I47" s="8">
+        <v>-0.007970103082001582</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0.007710745584115622</v>
+      </c>
+      <c r="K47" s="50">
         <v>0.09636059528942319</v>
       </c>
-      <c r="F47" s="66">
+      <c r="L47" s="15">
+        <v>-0.03334371004873989</v>
+      </c>
+      <c r="M47" s="8">
+        <v>-0.01068510160562772</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0.0009340294655686783</v>
+      </c>
+      <c r="O47" s="106">
         <v>0.1428913291707085</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="P47" s="107">
+        <v>0.8024785200414023</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>0.001612438776678829</v>
+      </c>
+      <c r="R47" s="26">
+        <v>-0.02484376648701684</v>
+      </c>
+      <c r="S47" s="81">
+        <v>0.1537202939383268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="7">
+        <v>64</v>
+      </c>
+      <c r="B48" s="4">
         <v>0.0007781410585894131</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="7">
         <v>-0.004592921003138782</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="4">
+        <v>0.002092802145585273</v>
+      </c>
+      <c r="E48" s="4">
         <v>0.00352934948872842</v>
       </c>
-      <c r="E48" s="15">
+      <c r="F48" s="20">
+        <v>0.0283620227694932</v>
+      </c>
+      <c r="G48" s="7">
+        <v>-0.006683017934036407</v>
+      </c>
+      <c r="H48" s="20">
+        <v>0.0290625514410557</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0.0007489590285379791</v>
+      </c>
+      <c r="J48" s="108">
+        <v>0.9092905717917351</v>
+      </c>
+      <c r="K48" s="26">
         <v>-0.03010608871793699</v>
       </c>
-      <c r="F48" s="33">
+      <c r="L48" s="20">
+        <v>0.03096674470364304</v>
+      </c>
+      <c r="M48" s="7">
+        <v>-0.0008237968582990766</v>
+      </c>
+      <c r="N48" s="8">
+        <v>-0.009477495963090134</v>
+      </c>
+      <c r="O48" s="9">
         <v>0.0379807972660394</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="P48" s="3">
+        <v>0.01620875916460457</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0.01089471113555243</v>
+      </c>
+      <c r="R48" s="4">
+        <v>0.001819012944645205</v>
+      </c>
+      <c r="S48" s="8">
+        <v>-0.011544519297909</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B49" s="2">
         <v>0.01551790650703917</v>
       </c>
-      <c r="C49" s="67">
+      <c r="C49" s="28">
         <v>0.210389413425628</v>
       </c>
-      <c r="D49" s="68">
+      <c r="D49" s="17">
+        <v>-0.04802282528336693</v>
+      </c>
+      <c r="E49" s="109">
         <v>0.2232273234099394</v>
       </c>
-      <c r="E49" s="9">
+      <c r="F49" s="35">
+        <v>0.06386560751477409</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.005788098969065648</v>
+      </c>
+      <c r="H49" s="96">
+        <v>0.1628948132413846</v>
+      </c>
+      <c r="I49" s="7">
+        <v>-0.003009015012833593</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.01118618436500957</v>
+      </c>
+      <c r="K49" s="8">
         <v>-0.01257225705361741</v>
       </c>
-      <c r="F49" s="69">
+      <c r="L49" s="3">
+        <v>0.01948972711210643</v>
+      </c>
+      <c r="M49" s="13">
+        <v>-0.02090784035902777</v>
+      </c>
+      <c r="N49" s="30">
+        <v>-0.06022778183394895</v>
+      </c>
+      <c r="O49" s="55">
         <v>0.7009262081421167</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="P49" s="81">
+        <v>0.1499936551154185</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>0.0007472862418841473</v>
+      </c>
+      <c r="R49" s="15">
+        <v>-0.03558892720075388</v>
+      </c>
+      <c r="S49" s="30">
+        <v>-0.06196736479227492</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="13">
+        <v>66</v>
+      </c>
+      <c r="B50" s="19">
         <v>0.04531927148132271</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="12">
         <v>-0.04427147908193555</v>
       </c>
-      <c r="D50" s="70">
+      <c r="D50" s="4">
+        <v>0.007189962921731469</v>
+      </c>
+      <c r="E50" s="110">
         <v>0.7091811117872343</v>
       </c>
-      <c r="E50" s="3">
+      <c r="F50" s="7">
+        <v>-0.004237813862092267</v>
+      </c>
+      <c r="G50" s="111">
+        <v>0.6082318644656567</v>
+      </c>
+      <c r="H50" s="20">
+        <v>0.02357289596251073</v>
+      </c>
+      <c r="I50" s="13">
+        <v>-0.01850307116893755</v>
+      </c>
+      <c r="J50" s="7">
+        <v>-0.004104475228567037</v>
+      </c>
+      <c r="K50" s="3">
         <v>0.02158330589728206</v>
       </c>
-      <c r="F50" s="2">
+      <c r="L50" s="15">
+        <v>-0.03689544050817228</v>
+      </c>
+      <c r="M50" s="7">
+        <v>-0.003383076924967898</v>
+      </c>
+      <c r="N50" s="5">
+        <v>-0.0686511352464414</v>
+      </c>
+      <c r="O50" s="2">
         <v>0.01074653830135218</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="P50" s="84">
+        <v>0.1963813785396949</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>0.003266075806028451</v>
+      </c>
+      <c r="R50" s="7">
+        <v>-0.0001288876469728977</v>
+      </c>
+      <c r="S50" s="20">
+        <v>0.0296499736894097</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="18">
+        <v>67</v>
+      </c>
+      <c r="B51" s="32">
         <v>-0.0765925807947577</v>
       </c>
-      <c r="C51" s="71">
+      <c r="C51" s="112">
         <v>0.7916427921076822</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="69">
+        <v>-0.1222962884811615</v>
+      </c>
+      <c r="E51" s="12">
         <v>-0.0414952407576185</v>
       </c>
-      <c r="E51" s="11">
+      <c r="F51" s="3">
+        <v>0.01670363236326324</v>
+      </c>
+      <c r="G51" s="13">
+        <v>-0.01691275429065122</v>
+      </c>
+      <c r="H51" s="76">
+        <v>-0.1717681011390987</v>
+      </c>
+      <c r="I51" s="8">
+        <v>-0.0144627211981349</v>
+      </c>
+      <c r="J51" s="7">
+        <v>-0.006658606148331267</v>
+      </c>
+      <c r="K51" s="17">
         <v>-0.0514021556377969</v>
       </c>
-      <c r="F51" s="67">
+      <c r="L51" s="57">
+        <v>0.4373507921153101</v>
+      </c>
+      <c r="M51" s="7">
+        <v>-0.003722158991853047</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0.005697792769596164</v>
+      </c>
+      <c r="O51" s="28">
         <v>0.2060455551307334</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="P51" s="15">
+        <v>-0.03306477283256231</v>
+      </c>
+      <c r="Q51" s="17">
+        <v>-0.04792841090231271</v>
+      </c>
+      <c r="R51" s="12">
+        <v>-0.04012680876594885</v>
+      </c>
+      <c r="S51" s="22">
+        <v>-0.08250649560259073</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="72">
+        <v>68</v>
+      </c>
+      <c r="B52" s="113">
         <v>-0.731433555718761</v>
       </c>
-      <c r="C52" s="73">
+      <c r="C52" s="114">
         <v>0.3957077699915358</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="5">
+        <v>-0.06665300825864472</v>
+      </c>
+      <c r="E52" s="3">
         <v>0.01986024325824984</v>
       </c>
-      <c r="E52" s="9">
+      <c r="F52" s="8">
+        <v>-0.01054492226170143</v>
+      </c>
+      <c r="G52" s="8">
+        <v>-0.008443242074742063</v>
+      </c>
+      <c r="H52" s="115">
+        <v>-0.3284066994831341</v>
+      </c>
+      <c r="I52" s="13">
+        <v>-0.01563068749182904</v>
+      </c>
+      <c r="J52" s="7">
+        <v>-0.007677627473154165</v>
+      </c>
+      <c r="K52" s="8">
         <v>-0.008085227463618503</v>
       </c>
-      <c r="F52" s="13">
+      <c r="L52" s="81">
+        <v>0.150504113070496</v>
+      </c>
+      <c r="M52" s="8">
+        <v>-0.0153858606206958</v>
+      </c>
+      <c r="N52" s="26">
+        <v>-0.02594617830244557</v>
+      </c>
+      <c r="O52" s="19">
         <v>0.04555561108915162</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="P52" s="26">
+        <v>-0.02528614340753832</v>
+      </c>
+      <c r="Q52" s="26">
+        <v>-0.02738093103263659</v>
+      </c>
+      <c r="R52" s="13">
+        <v>-0.0179658255316946</v>
+      </c>
+      <c r="S52" s="13">
+        <v>-0.02117961105799853</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="19">
+        <v>69</v>
+      </c>
+      <c r="B53" s="20">
         <v>0.0304053278787296</v>
       </c>
-      <c r="C53" s="74">
+      <c r="C53" s="38">
         <v>0.1933589132725051</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="15">
+        <v>-0.03188943214209628</v>
+      </c>
+      <c r="E53" s="7">
         <v>-0.007010355888074438</v>
       </c>
-      <c r="E53" s="9">
+      <c r="F53" s="80">
+        <v>0.8948455916697534</v>
+      </c>
+      <c r="G53" s="7">
+        <v>-0.004664821043136426</v>
+      </c>
+      <c r="H53" s="26">
+        <v>-0.02843120009480141</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0.004488573908346437</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.008575730823199875</v>
+      </c>
+      <c r="K53" s="8">
         <v>-0.009149345362336317</v>
       </c>
-      <c r="F53" s="2">
+      <c r="L53" s="18">
+        <v>0.04761618122872389</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0.002732385087048355</v>
+      </c>
+      <c r="N53" s="4">
+        <v>0.002806112338106296</v>
+      </c>
+      <c r="O53" s="2">
         <v>0.01190060085184312</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="P53" s="13">
+        <v>-0.02235442651428176</v>
+      </c>
+      <c r="Q53" s="71">
+        <v>-0.1469970721601015</v>
+      </c>
+      <c r="R53" s="7">
+        <v>-0.005048964715701719</v>
+      </c>
+      <c r="S53" s="8">
+        <v>-0.01004661028782473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="19">
+        <v>70</v>
+      </c>
+      <c r="B54" s="20">
         <v>0.02947210082065972</v>
       </c>
-      <c r="C54" s="75">
+      <c r="C54" s="116">
         <v>0.4958770495013433</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="60">
+        <v>-0.09785200153709581</v>
+      </c>
+      <c r="E54" s="17">
         <v>-0.05422713402415086</v>
       </c>
-      <c r="E54" s="8">
+      <c r="F54" s="20">
+        <v>0.02575061146816968</v>
+      </c>
+      <c r="G54" s="13">
+        <v>-0.01764800481039308</v>
+      </c>
+      <c r="H54" s="117">
+        <v>0.5766120180444688</v>
+      </c>
+      <c r="I54" s="8">
+        <v>-0.009322554463982563</v>
+      </c>
+      <c r="J54" s="20">
+        <v>0.02521090683860151</v>
+      </c>
+      <c r="K54" s="15">
         <v>-0.03677866761797864</v>
       </c>
-      <c r="F54" s="76">
+      <c r="L54" s="114">
+        <v>0.3950693837622298</v>
+      </c>
+      <c r="M54" s="26">
+        <v>-0.02412438047367149</v>
+      </c>
+      <c r="N54" s="20">
+        <v>0.03019817859683735</v>
+      </c>
+      <c r="O54" s="70">
         <v>0.1813586311828467</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="P54" s="3">
+        <v>0.02274498637821685</v>
+      </c>
+      <c r="Q54" s="26">
+        <v>-0.02457305860055874</v>
+      </c>
+      <c r="R54" s="12">
+        <v>-0.03983798681221005</v>
+      </c>
+      <c r="S54" s="6">
+        <v>0.07517778362486484</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="8">
+        <v>71</v>
+      </c>
+      <c r="B55" s="15">
         <v>-0.03194663854717709</v>
       </c>
-      <c r="C55" s="77">
+      <c r="C55" s="118">
         <v>0.62924984772603</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="119">
+        <v>0.6592731603706522</v>
+      </c>
+      <c r="E55" s="13">
         <v>-0.02294428336634827</v>
       </c>
-      <c r="E55" s="8">
+      <c r="F55" s="2">
+        <v>0.01365545598833721</v>
+      </c>
+      <c r="G55" s="12">
+        <v>-0.03918949102160089</v>
+      </c>
+      <c r="H55" s="98">
+        <v>-0.1168524726100015</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0.00656335750168982</v>
+      </c>
+      <c r="J55" s="8">
+        <v>-0.01532699623954409</v>
+      </c>
+      <c r="K55" s="15">
         <v>-0.03398012051742985</v>
       </c>
-      <c r="F55" s="38">
+      <c r="L55" s="75">
+        <v>-0.2490453613136338</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0.007583516632180463</v>
+      </c>
+      <c r="N55" s="8">
+        <v>-0.01232313601361034</v>
+      </c>
+      <c r="O55" s="18">
         <v>0.04857444365587539</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="P55" s="8">
+        <v>-0.01073912013696632</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>0.02219495018342399</v>
+      </c>
+      <c r="R55" s="8">
+        <v>-0.01513704274416638</v>
+      </c>
+      <c r="S55" s="32">
+        <v>-0.07657464260975345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="10">
+        <v>72</v>
+      </c>
+      <c r="B56" s="13">
         <v>-0.02145338007360224</v>
       </c>
-      <c r="C56" s="78">
+      <c r="C56" s="120">
         <v>0.7152790847682977</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="58">
+        <v>0.4651024074648535</v>
+      </c>
+      <c r="E56" s="13">
         <v>-0.02090044659877685</v>
       </c>
-      <c r="E56" s="22">
+      <c r="F56" s="8">
+        <v>-0.01530680423924098</v>
+      </c>
+      <c r="G56" s="15">
+        <v>-0.03531537762431539</v>
+      </c>
+      <c r="H56" s="68">
+        <v>-0.1401433490796619</v>
+      </c>
+      <c r="I56" s="7">
+        <v>-0.00123351473912043</v>
+      </c>
+      <c r="J56" s="13">
+        <v>-0.02002275481797846</v>
+      </c>
+      <c r="K56" s="12">
         <v>-0.04087639398013466</v>
       </c>
-      <c r="F56" s="2">
+      <c r="L56" s="75">
+        <v>-0.2498420603063621</v>
+      </c>
+      <c r="M56" s="23">
+        <v>0.05570074254766912</v>
+      </c>
+      <c r="N56" s="13">
+        <v>-0.02011637476761635</v>
+      </c>
+      <c r="O56" s="2">
         <v>0.01116025246171341</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="P56" s="8">
+        <v>-0.009933138676886336</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>0.006743209405796846</v>
+      </c>
+      <c r="R56" s="8">
+        <v>-0.01380878762293759</v>
+      </c>
+      <c r="S56" s="5">
+        <v>-0.06848423797137858</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="17">
+        <v>73</v>
+      </c>
+      <c r="B57" s="30">
         <v>-0.05805618014342451</v>
       </c>
-      <c r="C57" s="79">
+      <c r="C57" s="121">
         <v>0.4918887050711419</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="17">
+        <v>-0.04823579455640601</v>
+      </c>
+      <c r="E57" s="12">
         <v>-0.04328294750030382</v>
       </c>
-      <c r="E57" s="11">
+      <c r="F57" s="4">
+        <v>0.002789957623123381</v>
+      </c>
+      <c r="G57" s="7">
+        <v>-0.0002719705380599722</v>
+      </c>
+      <c r="H57" s="77">
+        <v>-0.1019264086607992</v>
+      </c>
+      <c r="I57" s="8">
+        <v>-0.01042528006090991</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0.005987486335397545</v>
+      </c>
+      <c r="K57" s="17">
         <v>-0.0474271064573732</v>
       </c>
-      <c r="F57" s="80">
+      <c r="L57" s="47">
+        <v>0.7349302896655769</v>
+      </c>
+      <c r="M57" s="13">
+        <v>-0.0162068328591093</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0.009635065915672274</v>
+      </c>
+      <c r="O57" s="85">
         <v>0.242851142709424</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="P57" s="8">
+        <v>-0.01041799722192153</v>
+      </c>
+      <c r="Q57" s="15">
+        <v>-0.03685054791576779</v>
+      </c>
+      <c r="R57" s="15">
+        <v>-0.03228428201519901</v>
+      </c>
+      <c r="S57" s="17">
+        <v>-0.05117537539172445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="7">
+        <v>74</v>
+      </c>
+      <c r="B58" s="4">
         <v>0.006492241512963359</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="30">
         <v>-0.05787851253372221</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="55">
+        <v>0.6981460864285406</v>
+      </c>
+      <c r="E58" s="13">
         <v>-0.01700754269204559</v>
       </c>
-      <c r="E58" s="22">
+      <c r="F58" s="4">
+        <v>0.004676727978305034</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.01181843203818681</v>
+      </c>
+      <c r="H58" s="17">
+        <v>-0.04832952541999296</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0.006355618060522806</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0.002337418621639452</v>
+      </c>
+      <c r="K58" s="12">
         <v>-0.04348297682486703</v>
       </c>
-      <c r="F58" s="10">
+      <c r="L58" s="9">
+        <v>0.03512110368284969</v>
+      </c>
+      <c r="M58" s="7">
+        <v>-0.00433562350551743</v>
+      </c>
+      <c r="N58" s="7">
+        <v>-0.005149772054804722</v>
+      </c>
+      <c r="O58" s="13">
         <v>-0.01942583163183298</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="P58" s="3">
+        <v>0.02308516323602466</v>
+      </c>
+      <c r="Q58" s="26">
+        <v>-0.02427759078716764</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0.02060123004357597</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0.01652540200048053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="16">
+        <v>75</v>
+      </c>
+      <c r="B59" s="7">
         <v>-0.005605296700441021</v>
       </c>
-      <c r="C59" s="81">
+      <c r="C59" s="108">
         <v>0.9126968755040873</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="79">
+        <v>-0.09071750644309917</v>
+      </c>
+      <c r="E59" s="12">
         <v>-0.04527445739740549</v>
       </c>
-      <c r="E59" s="8">
+      <c r="F59" s="6">
+        <v>0.07143921631825222</v>
+      </c>
+      <c r="G59" s="17">
+        <v>-0.05021553841814999</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0.08554066406485818</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0.007139683614348731</v>
+      </c>
+      <c r="J59" s="26">
+        <v>-0.02410151243499347</v>
+      </c>
+      <c r="K59" s="15">
         <v>-0.03833592443628451</v>
       </c>
-      <c r="F59" s="74">
+      <c r="L59" s="8">
+        <v>-0.01414431105164428</v>
+      </c>
+      <c r="M59" s="19">
+        <v>0.04105717152570836</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0.01352396479930752</v>
+      </c>
+      <c r="O59" s="38">
         <v>0.1928422722352638</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="P59" s="26">
+        <v>-0.02356243186036982</v>
+      </c>
+      <c r="Q59" s="13">
+        <v>-0.02045549138806088</v>
+      </c>
+      <c r="R59" s="15">
+        <v>-0.03585528255985105</v>
+      </c>
+      <c r="S59" s="79">
+        <v>-0.08669749722935449</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B60" s="3">
         <v>0.01720205511382101</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60" s="12">
         <v>-0.045012449980565</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="7">
+        <v>-0.003980845722901491</v>
+      </c>
+      <c r="E60" s="2">
         <v>0.01539134891227037</v>
       </c>
-      <c r="E60" s="6">
+      <c r="F60" s="8">
+        <v>-0.0113619363785658</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0.03883660070512455</v>
+      </c>
+      <c r="H60" s="5">
+        <v>-0.0635561962925591</v>
+      </c>
+      <c r="I60" s="26">
+        <v>-0.02745587799785053</v>
+      </c>
+      <c r="J60" s="7">
+        <v>-0.004775887373049353</v>
+      </c>
+      <c r="K60" s="11">
         <v>0.08438395902384839</v>
       </c>
-      <c r="F60" s="9">
+      <c r="L60" s="8">
+        <v>-0.009277424566099498</v>
+      </c>
+      <c r="M60" s="7">
+        <v>-0.0009943878911493477</v>
+      </c>
+      <c r="N60" s="12">
+        <v>-0.04334713024681931</v>
+      </c>
+      <c r="O60" s="8">
         <v>-0.01517961846739486</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="P60" s="122">
+        <v>0.8896029600485705</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>-0.000550626063403484</v>
+      </c>
+      <c r="R60" s="7">
+        <v>-0.005997915913474325</v>
+      </c>
+      <c r="S60" s="7">
+        <v>-0.005526890292364045</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B61" s="2">
         <v>0.01117423256592465</v>
       </c>
-      <c r="C61" s="82">
+      <c r="C61" s="123">
         <v>0.3272097486262606</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="22">
+        <v>-0.08390193058450021</v>
+      </c>
+      <c r="E61" s="4">
         <v>0.003017151294031871</v>
       </c>
-      <c r="E61" s="36">
+      <c r="F61" s="18">
+        <v>0.05335310267294135</v>
+      </c>
+      <c r="G61" s="26">
+        <v>-0.02634922742198209</v>
+      </c>
+      <c r="H61" s="21">
+        <v>0.1158246534286911</v>
+      </c>
+      <c r="I61" s="8">
+        <v>-0.01167047909678889</v>
+      </c>
+      <c r="J61" s="23">
+        <v>0.05897370087546464</v>
+      </c>
+      <c r="K61" s="56">
         <v>0.2953936029623148</v>
       </c>
-      <c r="F61" s="83">
+      <c r="L61" s="28">
+        <v>0.208429281762062</v>
+      </c>
+      <c r="M61" s="8">
+        <v>-0.01043381331389839</v>
+      </c>
+      <c r="N61" s="21">
+        <v>0.1142713588356297</v>
+      </c>
+      <c r="O61" s="124">
         <v>0.6348369394640409</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="P61" s="17">
+        <v>-0.04776199066242177</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>0.0004459358199369997</v>
+      </c>
+      <c r="R61" s="7">
+        <v>-0.007430464375228049</v>
+      </c>
+      <c r="S61" s="69">
+        <v>-0.1193861789180595</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="48">
+        <v>78</v>
+      </c>
+      <c r="B62" s="23">
         <v>0.05777371066296402</v>
       </c>
-      <c r="C62" s="55">
+      <c r="C62" s="89">
         <v>-0.161858822466457</v>
       </c>
-      <c r="D62" s="38">
+      <c r="D62" s="39">
+        <v>0.1252614278030054</v>
+      </c>
+      <c r="E62" s="18">
         <v>0.04853016966545709</v>
       </c>
-      <c r="E62" s="81">
+      <c r="F62" s="4">
+        <v>0.00210450699370949</v>
+      </c>
+      <c r="G62" s="33">
+        <v>0.1247570370549129</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0.07097223618030329</v>
+      </c>
+      <c r="I62" s="7">
+        <v>-0.001915722497760814</v>
+      </c>
+      <c r="J62" s="23">
+        <v>0.05974799136845741</v>
+      </c>
+      <c r="K62" s="108">
         <v>0.9073925444328401</v>
       </c>
-      <c r="F62" s="6">
+      <c r="L62" s="98">
+        <v>-0.1132191421284407</v>
+      </c>
+      <c r="M62" s="8">
+        <v>-0.01069800683428622</v>
+      </c>
+      <c r="N62" s="39">
+        <v>0.126788535650655</v>
+      </c>
+      <c r="O62" s="11">
         <v>0.08068203743485214</v>
+      </c>
+      <c r="P62" s="37">
+        <v>0.1087996711951223</v>
+      </c>
+      <c r="Q62" s="20">
+        <v>0.02381382797790761</v>
+      </c>
+      <c r="R62" s="26">
+        <v>-0.02462024149455947</v>
+      </c>
+      <c r="S62" s="19">
+        <v>0.0436518358610373</v>
       </c>
     </row>
   </sheetData>
